--- a/zr75_data.xlsx
+++ b/zr75_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clarkpg\Downloads\new data2\new data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\BC\Technicians\LET\Projects\LET02-Theradesign (groningen)\paper\240524_excel files for submitting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273E886F-63FC-4AFF-BAB9-53F5FE4711E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6AFF75E-F190-4EDF-BF5F-5ADA8AC5C8E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="56">
   <si>
     <t>Akt</t>
   </si>
@@ -77,9 +77,6 @@
     <t>ZR-75-1 30 minutes ins + aa</t>
   </si>
   <si>
-    <t>Table S1: Model input data from MCF7 and ZR-75-1 experiments</t>
-  </si>
-  <si>
     <t>Description:</t>
   </si>
   <si>
@@ -128,24 +125,6 @@
     <t>Normalized data:</t>
   </si>
   <si>
-    <t>Akt-pT308</t>
-  </si>
-  <si>
-    <t>Akt-pS473</t>
-  </si>
-  <si>
-    <t>PRAS40-pT246</t>
-  </si>
-  <si>
-    <t>S6K-pT389</t>
-  </si>
-  <si>
-    <t>TSC2-pT1462</t>
-  </si>
-  <si>
-    <t>4E-BP1-pT37/46</t>
-  </si>
-  <si>
     <t>IRS1-pS636/639</t>
   </si>
   <si>
@@ -201,6 +180,15 @@
   </si>
   <si>
     <t>4E-BP1pT37/46</t>
+  </si>
+  <si>
+    <t>orange background color</t>
+  </si>
+  <si>
+    <t>n.d.</t>
+  </si>
+  <si>
+    <t>Table S3: Model input data from MCF7 and ZR-75-1 cell lines</t>
   </si>
 </sst>
 </file>
@@ -255,7 +243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -582,11 +570,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -605,7 +606,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
@@ -639,6 +639,8 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,9 +659,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -697,9 +699,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -732,9 +734,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -767,9 +786,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -943,83 +979,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6E7BA2-BC25-4D99-8764-7AC63E3D3896}">
-  <dimension ref="A1:BI68"/>
+  <dimension ref="A1:BC68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R34" workbookViewId="0">
-      <selection activeCell="T51" sqref="T51"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="19" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.90625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="11.88671875" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="0" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="29.7265625" customWidth="1"/>
+    <col min="24" max="24" width="29.77734375" customWidth="1"/>
     <col min="25" max="28" width="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="30" max="36" width="12" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="12" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="40" max="49" width="12" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="51" max="57" width="12" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="59" max="61" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="2" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="3" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="4" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="5" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="7" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="8" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="9" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="10" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="11" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="12" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="13" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="14" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="15" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="16" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="1:1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="2" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="3" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="4" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="5" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="6" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="7" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="8" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="9" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="10" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="11" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="12" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="13" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="14" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="15" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
     </row>
-    <row r="19" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:1" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="1:61" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:1" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:55" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="28" t="s">
-        <v>21</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="27" t="s">
+        <v>20</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>0</v>
@@ -1028,13 +1064,13 @@
       <c r="D35" s="2"/>
       <c r="E35" s="3"/>
       <c r="F35" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="3"/>
       <c r="J35" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -1046,236 +1082,225 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
       <c r="U35" s="3"/>
       <c r="V35" s="1"/>
       <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="1" t="s">
+      <c r="X35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AA35" s="2"/>
-      <c r="AB35" s="2"/>
-      <c r="AC35" s="3"/>
-      <c r="AD35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE35" s="2"/>
-      <c r="AF35" s="2"/>
-      <c r="AG35" s="3"/>
-      <c r="AH35" s="1"/>
-      <c r="AI35" s="2"/>
-      <c r="AJ35" s="2"/>
-      <c r="AK35" s="3"/>
-      <c r="AL35" s="1" t="s">
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AM35" s="2"/>
-      <c r="AN35" s="2"/>
-      <c r="AO35" s="3"/>
-      <c r="AP35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ35" s="2"/>
-      <c r="AR35" s="2"/>
-      <c r="AS35" s="3"/>
-      <c r="AT35" s="1" t="s">
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2"/>
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK35" s="2"/>
+      <c r="AL35" s="2"/>
+      <c r="AM35" s="3"/>
+      <c r="AN35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AU35" s="2"/>
-      <c r="AV35" s="2"/>
-      <c r="AW35" s="3"/>
-      <c r="AX35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AY35" s="2"/>
-      <c r="AZ35" s="2"/>
-      <c r="BA35" s="3"/>
-      <c r="BB35" s="1" t="s">
+      <c r="AO35" s="2"/>
+      <c r="AP35" s="2"/>
+      <c r="AQ35" s="3"/>
+      <c r="AR35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS35" s="2"/>
+      <c r="AT35" s="2"/>
+      <c r="AU35" s="3"/>
+      <c r="AV35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="BC35" s="2"/>
-      <c r="BD35" s="2"/>
-      <c r="BE35" s="3"/>
-      <c r="BF35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="BG35" s="2"/>
-      <c r="BH35" s="2"/>
-      <c r="BI35" s="3"/>
-    </row>
-    <row r="36" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="27" t="s">
-        <v>33</v>
+      <c r="AW35" s="2"/>
+      <c r="AX35" s="2"/>
+      <c r="AY35" s="3"/>
+      <c r="AZ35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA35" s="2"/>
+      <c r="BB35" s="2"/>
+      <c r="BC35" s="3"/>
+    </row>
+    <row r="36" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="26" t="s">
+        <v>32</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S36" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T36" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U36" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V36" s="7"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA36" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB36" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC36" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD36" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE36" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF36" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG36" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH36" s="4"/>
-      <c r="AI36" s="5"/>
-      <c r="AJ36" s="5"/>
-      <c r="AK36" s="6"/>
-      <c r="AL36" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM36" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AN36" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AO36" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP36" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AQ36" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AR36" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AS36" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT36" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AU36" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AV36" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AW36" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AX36" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AY36" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AZ36" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="BA36" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="BB36" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="BC36" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="BD36" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="BE36" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="BF36" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="BG36" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="BH36" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="BI36" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:61" x14ac:dyDescent="0.35">
+      <c r="X36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z36" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA36" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD36" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE36" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH36" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI36" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL36" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM36" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP36" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ36" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AT36" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AU36" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX36" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AY36" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AZ36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB36" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="BC36" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>6</v>
       </c>
@@ -1297,7 +1322,9 @@
       <c r="G37" s="2">
         <v>0.7273213345794074</v>
       </c>
-      <c r="H37" s="2"/>
+      <c r="H37" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="I37" s="3">
         <v>0.71988190851352263</v>
       </c>
@@ -1339,110 +1366,104 @@
       </c>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="3"/>
+      <c r="X37" s="2">
+        <v>0.86379697851633042</v>
+      </c>
+      <c r="Y37" s="2">
+        <v>0.94229707914445049</v>
+      </c>
       <c r="Z37" s="2">
-        <v>0.86379697851633042</v>
-      </c>
-      <c r="AA37" s="2">
-        <v>0.94229707914445049</v>
+        <v>1.6457831293437744</v>
+      </c>
+      <c r="AA37" s="3">
+        <v>1.1142832073232061</v>
       </c>
       <c r="AB37" s="2">
-        <v>1.6457831293437744</v>
-      </c>
-      <c r="AC37" s="3">
-        <v>1.1142832073232061</v>
+        <v>0.37697494920390179</v>
+      </c>
+      <c r="AC37" s="2">
+        <v>0.57204821580622756</v>
       </c>
       <c r="AD37" s="2">
-        <v>0.37697494920390179</v>
-      </c>
-      <c r="AE37" s="2">
-        <v>0.57204821580622756</v>
+        <v>0.19891043973128752</v>
+      </c>
+      <c r="AE37" s="3">
+        <v>0.8306562947256706</v>
       </c>
       <c r="AF37" s="2">
-        <v>0.19891043973128752</v>
-      </c>
-      <c r="AG37" s="3">
-        <v>0.8306562947256706</v>
-      </c>
-      <c r="AH37" s="2"/>
-      <c r="AI37" s="2"/>
-      <c r="AJ37" s="2"/>
-      <c r="AK37" s="3"/>
+        <v>2.0411278273426272</v>
+      </c>
+      <c r="AG37" s="2">
+        <v>0.7205873182584025</v>
+      </c>
+      <c r="AH37" s="2">
+        <v>1.1832449506979554</v>
+      </c>
+      <c r="AI37" s="3">
+        <v>1.1463496312412598</v>
+      </c>
+      <c r="AJ37" s="2">
+        <v>0.42045084754130602</v>
+      </c>
+      <c r="AK37" s="2">
+        <v>0.79642410294595201</v>
+      </c>
       <c r="AL37" s="2">
-        <v>2.0411278273426272</v>
-      </c>
-      <c r="AM37" s="2">
-        <v>0.7205873182584025</v>
+        <v>0.42024472189774081</v>
+      </c>
+      <c r="AM37" s="3">
+        <v>0.62209328668700981</v>
       </c>
       <c r="AN37" s="2">
-        <v>1.1832449506979554</v>
-      </c>
-      <c r="AO37" s="3">
-        <v>1.1463496312412598</v>
+        <v>0.75143029789604054</v>
+      </c>
+      <c r="AO37" s="2">
+        <v>0.89315954172173528</v>
       </c>
       <c r="AP37" s="2">
-        <v>0.42045084754130602</v>
-      </c>
-      <c r="AQ37" s="2">
-        <v>0.79642410294595201</v>
+        <v>1.7292762216577968</v>
+      </c>
+      <c r="AQ37" s="3">
+        <v>1.3863294855945965</v>
       </c>
       <c r="AR37" s="2">
-        <v>0.42024472189774081</v>
-      </c>
-      <c r="AS37" s="3">
-        <v>0.62209328668700981</v>
+        <v>0.84583787336445071</v>
+      </c>
+      <c r="AS37" s="2">
+        <v>0.48681973491702868</v>
       </c>
       <c r="AT37" s="2">
-        <v>0.75143029789604054</v>
-      </c>
-      <c r="AU37" s="2">
-        <v>0.89315954172173528</v>
+        <v>0.67584783614811206</v>
+      </c>
+      <c r="AU37" s="3">
+        <v>0.53478050450217285</v>
       </c>
       <c r="AV37" s="2">
-        <v>1.7292762216577968</v>
-      </c>
-      <c r="AW37" s="3">
-        <v>1.3863294855945965</v>
+        <v>0.49738106471352095</v>
+      </c>
+      <c r="AW37" s="2">
+        <v>0.40699307973459409</v>
       </c>
       <c r="AX37" s="2">
-        <v>0.84583787336445071</v>
-      </c>
-      <c r="AY37" s="2">
-        <v>0.48681973491702868</v>
-      </c>
-      <c r="AZ37" s="2">
-        <v>0.67584783614811206</v>
-      </c>
-      <c r="BA37" s="3">
-        <v>0.53478050450217285</v>
+        <v>0.32918536955651978</v>
+      </c>
+      <c r="AY37" s="3">
+        <v>1.567748602635632</v>
+      </c>
+      <c r="AZ37" s="1">
+        <v>5.1592870620864199E-2</v>
+      </c>
+      <c r="BA37" s="2">
+        <v>0.3686147119271328</v>
       </c>
       <c r="BB37" s="2">
-        <v>0.49738106471352095</v>
-      </c>
-      <c r="BC37" s="2">
-        <v>0.40699307973459409</v>
-      </c>
-      <c r="BD37" s="2">
-        <v>0.32918536955651978</v>
-      </c>
-      <c r="BE37" s="3">
-        <v>1.567748602635632</v>
-      </c>
-      <c r="BF37" s="1">
-        <v>5.1592870620864199E-2</v>
-      </c>
-      <c r="BG37" s="2">
-        <v>0.3686147119271328</v>
-      </c>
-      <c r="BH37" s="2">
         <v>5.6863987142221191E-2</v>
       </c>
-      <c r="BI37" s="3">
+      <c r="BC37" s="3">
         <v>0.48492869438437664</v>
       </c>
     </row>
-    <row r="38" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>7</v>
       </c>
@@ -1464,6 +1485,9 @@
       <c r="G38">
         <v>1.126274536983501</v>
       </c>
+      <c r="H38" t="s">
+        <v>54</v>
+      </c>
       <c r="I38" s="8">
         <v>1.1321430943730424</v>
       </c>
@@ -1503,106 +1527,104 @@
       <c r="U38" s="8">
         <v>1.0206920584381116</v>
       </c>
-      <c r="Y38" s="8"/>
+      <c r="X38">
+        <v>1.1407523216043651</v>
+      </c>
+      <c r="Y38">
+        <v>1.6237895987097901</v>
+      </c>
       <c r="Z38">
-        <v>1.1407523216043651</v>
-      </c>
-      <c r="AA38">
-        <v>1.6237895987097901</v>
+        <v>1.3851882685478152</v>
+      </c>
+      <c r="AA38" s="8">
+        <v>1.4519650567137017</v>
       </c>
       <c r="AB38">
-        <v>1.3851882685478152</v>
-      </c>
-      <c r="AC38" s="8">
-        <v>1.4519650567137017</v>
+        <v>1.4693320902905649</v>
+      </c>
+      <c r="AC38">
+        <v>1.2838742731909598</v>
       </c>
       <c r="AD38">
-        <v>1.4693320902905649</v>
-      </c>
-      <c r="AE38">
-        <v>1.2838742731909598</v>
+        <v>0.68109107871641861</v>
+      </c>
+      <c r="AE38" s="8">
+        <v>1.3946080484484094</v>
       </c>
       <c r="AF38">
-        <v>0.68109107871641861</v>
-      </c>
-      <c r="AG38" s="8">
-        <v>1.3946080484484094</v>
-      </c>
-      <c r="AK38" s="8"/>
+        <v>1.4736762584431047</v>
+      </c>
+      <c r="AG38">
+        <v>1.2767748916901926</v>
+      </c>
+      <c r="AH38">
+        <v>1.0838099441906404</v>
+      </c>
+      <c r="AI38" s="8">
+        <v>1.1776909327979119</v>
+      </c>
+      <c r="AJ38">
+        <v>1.2242507561385911</v>
+      </c>
+      <c r="AK38">
+        <v>1.1246927718293098</v>
+      </c>
       <c r="AL38">
-        <v>1.4736762584431047</v>
-      </c>
-      <c r="AM38">
-        <v>1.2767748916901926</v>
+        <v>1.3688321256048339</v>
+      </c>
+      <c r="AM38" s="8">
+        <v>1.3568419993639562</v>
       </c>
       <c r="AN38">
-        <v>1.0838099441906404</v>
-      </c>
-      <c r="AO38" s="8">
-        <v>1.1776909327979119</v>
+        <v>0.7689794529366184</v>
+      </c>
+      <c r="AO38">
+        <v>1.4383285487950432</v>
       </c>
       <c r="AP38">
-        <v>1.2242507561385911</v>
-      </c>
-      <c r="AQ38">
-        <v>1.1246927718293098</v>
+        <v>1.5781462641842909</v>
+      </c>
+      <c r="AQ38" s="8">
+        <v>1.3773696830712638</v>
       </c>
       <c r="AR38">
-        <v>1.3688321256048339</v>
-      </c>
-      <c r="AS38" s="8">
-        <v>1.3568419993639562</v>
+        <v>2.8411178922092835</v>
+      </c>
+      <c r="AS38">
+        <v>0.89927492481517179</v>
       </c>
       <c r="AT38">
-        <v>0.7689794529366184</v>
-      </c>
-      <c r="AU38">
-        <v>1.4383285487950432</v>
+        <v>1.7571235624832577</v>
+      </c>
+      <c r="AU38" s="8">
+        <v>1.8496212822892015</v>
       </c>
       <c r="AV38">
-        <v>1.5781462641842909</v>
-      </c>
-      <c r="AW38" s="8">
-        <v>1.3773696830712638</v>
+        <v>0.66789711038850019</v>
+      </c>
+      <c r="AW38">
+        <v>0.50452548288380117</v>
       </c>
       <c r="AX38">
-        <v>2.8411178922092835</v>
-      </c>
-      <c r="AY38">
-        <v>0.89927492481517179</v>
-      </c>
-      <c r="AZ38">
-        <v>1.7571235624832577</v>
-      </c>
-      <c r="BA38" s="8">
-        <v>1.8496212822892015</v>
+        <v>0.48792570722757272</v>
+      </c>
+      <c r="AY38" s="8">
+        <v>0.8248072605210407</v>
+      </c>
+      <c r="AZ38" s="7">
+        <v>0.42595897338208477</v>
+      </c>
+      <c r="BA38">
+        <v>0.81739371235069136</v>
       </c>
       <c r="BB38">
-        <v>0.66789711038850019</v>
-      </c>
-      <c r="BC38">
-        <v>0.50452548288380117</v>
-      </c>
-      <c r="BD38">
-        <v>0.48792570722757272</v>
-      </c>
-      <c r="BE38" s="8">
-        <v>0.8248072605210407</v>
-      </c>
-      <c r="BF38" s="7">
-        <v>0.42595897338208477</v>
-      </c>
-      <c r="BG38">
-        <v>0.81739371235069136</v>
-      </c>
-      <c r="BH38">
         <v>0.55290890014106275</v>
       </c>
-      <c r="BI38" s="8">
+      <c r="BC38" s="8">
         <v>0.54555787936496136</v>
       </c>
     </row>
-    <row r="39" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>8</v>
       </c>
@@ -1624,6 +1646,9 @@
       <c r="G39">
         <v>1.3822853056104658</v>
       </c>
+      <c r="H39" t="s">
+        <v>54</v>
+      </c>
       <c r="I39" s="8">
         <v>1.0428536948794034</v>
       </c>
@@ -1663,106 +1688,104 @@
       <c r="U39" s="8">
         <v>0.92809306320113227</v>
       </c>
-      <c r="Y39" s="8"/>
+      <c r="X39">
+        <v>1.2647982951100394</v>
+      </c>
+      <c r="Y39">
+        <v>1.8857227640458161</v>
+      </c>
       <c r="Z39">
-        <v>1.2647982951100394</v>
-      </c>
-      <c r="AA39">
-        <v>1.8857227640458161</v>
+        <v>1.5904844927808302</v>
+      </c>
+      <c r="AA39" s="8">
+        <v>1.382616108821205</v>
       </c>
       <c r="AB39">
-        <v>1.5904844927808302</v>
-      </c>
-      <c r="AC39" s="8">
-        <v>1.382616108821205</v>
+        <v>2.4426636452097954</v>
+      </c>
+      <c r="AC39">
+        <v>2.1163413551731938</v>
       </c>
       <c r="AD39">
-        <v>2.4426636452097954</v>
-      </c>
-      <c r="AE39">
-        <v>2.1163413551731938</v>
+        <v>1.6232759038800302</v>
+      </c>
+      <c r="AE39" s="8">
+        <v>1.5723477110118984</v>
       </c>
       <c r="AF39">
-        <v>1.6232759038800302</v>
-      </c>
-      <c r="AG39" s="8">
-        <v>1.5723477110118984</v>
-      </c>
-      <c r="AK39" s="8"/>
+        <v>1.1915488519811424</v>
+      </c>
+      <c r="AG39">
+        <v>1.2830499150316459</v>
+      </c>
+      <c r="AH39">
+        <v>1.0973236374542348</v>
+      </c>
+      <c r="AI39" s="8">
+        <v>1.153643144356733</v>
+      </c>
+      <c r="AJ39">
+        <v>1.3823520578832935</v>
+      </c>
+      <c r="AK39">
+        <v>1.1839283508275869</v>
+      </c>
       <c r="AL39">
-        <v>1.1915488519811424</v>
-      </c>
-      <c r="AM39">
-        <v>1.2830499150316459</v>
+        <v>1.2044660502436899</v>
+      </c>
+      <c r="AM39" s="8">
+        <v>1.2493247991470133</v>
       </c>
       <c r="AN39">
-        <v>1.0973236374542348</v>
-      </c>
-      <c r="AO39" s="8">
-        <v>1.153643144356733</v>
+        <v>0.9013945999377917</v>
+      </c>
+      <c r="AO39">
+        <v>1.2068360819078419</v>
       </c>
       <c r="AP39">
-        <v>1.3823520578832935</v>
-      </c>
-      <c r="AQ39">
-        <v>1.1839283508275869</v>
+        <v>1.0205528078801858</v>
+      </c>
+      <c r="AQ39" s="8">
+        <v>1.6689811317194807</v>
       </c>
       <c r="AR39">
-        <v>1.2044660502436899</v>
-      </c>
-      <c r="AS39" s="8">
-        <v>1.2493247991470133</v>
+        <v>1.4745552427480506</v>
+      </c>
+      <c r="AS39">
+        <v>1.3761203119150129</v>
       </c>
       <c r="AT39">
-        <v>0.9013945999377917</v>
-      </c>
-      <c r="AU39">
-        <v>1.2068360819078419</v>
+        <v>1.8230446241369014</v>
+      </c>
+      <c r="AU39" s="8">
+        <v>1.4690889967627456</v>
       </c>
       <c r="AV39">
-        <v>1.0205528078801858</v>
-      </c>
-      <c r="AW39" s="8">
-        <v>1.6689811317194807</v>
+        <v>0.49204194952876917</v>
+      </c>
+      <c r="AW39">
+        <v>0.50247690825519453</v>
       </c>
       <c r="AX39">
-        <v>1.4745552427480506</v>
-      </c>
-      <c r="AY39">
-        <v>1.3761203119150129</v>
-      </c>
-      <c r="AZ39">
-        <v>1.8230446241369014</v>
-      </c>
-      <c r="BA39" s="8">
-        <v>1.4690889967627456</v>
+        <v>0.38410668529730257</v>
+      </c>
+      <c r="AY39" s="8">
+        <v>0.97293121994432896</v>
+      </c>
+      <c r="AZ39" s="7">
+        <v>0.5426020769494273</v>
+      </c>
+      <c r="BA39">
+        <v>1.1128001752614323</v>
       </c>
       <c r="BB39">
-        <v>0.49204194952876917</v>
-      </c>
-      <c r="BC39">
-        <v>0.50247690825519453</v>
-      </c>
-      <c r="BD39">
-        <v>0.38410668529730257</v>
-      </c>
-      <c r="BE39" s="8">
-        <v>0.97293121994432896</v>
-      </c>
-      <c r="BF39" s="7">
-        <v>0.5426020769494273</v>
-      </c>
-      <c r="BG39">
-        <v>1.1128001752614323</v>
-      </c>
-      <c r="BH39">
         <v>0.68943444223670713</v>
       </c>
-      <c r="BI39" s="8">
+      <c r="BC39" s="8">
         <v>0.69530184489784974</v>
       </c>
     </row>
-    <row r="40" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>9</v>
       </c>
@@ -1784,6 +1807,9 @@
       <c r="G40">
         <v>1.1499561829829235</v>
       </c>
+      <c r="H40" t="s">
+        <v>54</v>
+      </c>
       <c r="I40" s="8">
         <v>1.2232029434425307</v>
       </c>
@@ -1823,106 +1849,104 @@
       <c r="U40" s="8">
         <v>1.0942526307637184</v>
       </c>
-      <c r="Y40" s="8"/>
+      <c r="X40">
+        <v>1.4057929763849224</v>
+      </c>
+      <c r="Y40">
+        <v>1.4414352143043097</v>
+      </c>
       <c r="Z40">
-        <v>1.4057929763849224</v>
-      </c>
-      <c r="AA40">
-        <v>1.4414352143043097</v>
+        <v>1.5865199471926075</v>
+      </c>
+      <c r="AA40" s="8">
+        <v>1.3340512848559756</v>
       </c>
       <c r="AB40">
-        <v>1.5865199471926075</v>
-      </c>
-      <c r="AC40" s="8">
-        <v>1.3340512848559756</v>
+        <v>2.6552570032065628</v>
+      </c>
+      <c r="AC40">
+        <v>2.2215480128573959</v>
       </c>
       <c r="AD40">
-        <v>2.6552570032065628</v>
-      </c>
-      <c r="AE40">
-        <v>2.2215480128573959</v>
+        <v>1.8543619983960433</v>
+      </c>
+      <c r="AE40" s="8">
+        <v>1.6826812442208317</v>
       </c>
       <c r="AF40">
-        <v>1.8543619983960433</v>
-      </c>
-      <c r="AG40" s="8">
-        <v>1.6826812442208317</v>
-      </c>
-      <c r="AK40" s="8"/>
+        <v>0.78318880092010756</v>
+      </c>
+      <c r="AG40">
+        <v>1.2470404581548622</v>
+      </c>
+      <c r="AH40">
+        <v>1.1090758320243546</v>
+      </c>
+      <c r="AI40" s="8">
+        <v>1.0216964537210873</v>
+      </c>
+      <c r="AJ40">
+        <v>2.1301452481926288</v>
+      </c>
+      <c r="AK40">
+        <v>1.2138073508929532</v>
+      </c>
       <c r="AL40">
-        <v>0.78318880092010756</v>
-      </c>
-      <c r="AM40">
-        <v>1.2470404581548622</v>
+        <v>1.3447093598287694</v>
+      </c>
+      <c r="AM40" s="8">
+        <v>1.2556431495281253</v>
       </c>
       <c r="AN40">
-        <v>1.1090758320243546</v>
-      </c>
-      <c r="AO40" s="8">
-        <v>1.0216964537210873</v>
+        <v>1.2197897872194949</v>
+      </c>
+      <c r="AO40">
+        <v>1.3456756413437987</v>
       </c>
       <c r="AP40">
-        <v>2.1301452481926288</v>
-      </c>
-      <c r="AQ40">
-        <v>1.2138073508929532</v>
+        <v>1.6460910505557849</v>
+      </c>
+      <c r="AQ40" s="8">
+        <v>1.4665237648766554</v>
       </c>
       <c r="AR40">
-        <v>1.3447093598287694</v>
-      </c>
-      <c r="AS40" s="8">
-        <v>1.2556431495281253</v>
+        <v>1.3563166280153052</v>
+      </c>
+      <c r="AS40">
+        <v>1.1591747389054046</v>
       </c>
       <c r="AT40">
-        <v>1.2197897872194949</v>
-      </c>
-      <c r="AU40">
-        <v>1.3456756413437987</v>
+        <v>1.4854245019633958</v>
+      </c>
+      <c r="AU40" s="8">
+        <v>1.766244538625396</v>
       </c>
       <c r="AV40">
-        <v>1.6460910505557849</v>
-      </c>
-      <c r="AW40" s="8">
-        <v>1.4665237648766554</v>
+        <v>0.52029982215911308</v>
+      </c>
+      <c r="AW40">
+        <v>0.55479255679945749</v>
       </c>
       <c r="AX40">
-        <v>1.3563166280153052</v>
-      </c>
-      <c r="AY40">
-        <v>1.1591747389054046</v>
-      </c>
-      <c r="AZ40">
-        <v>1.4854245019633958</v>
-      </c>
-      <c r="BA40" s="8">
-        <v>1.766244538625396</v>
+        <v>0.63179483985813178</v>
+      </c>
+      <c r="AY40" s="8">
+        <v>0.82894186710250606</v>
+      </c>
+      <c r="AZ40" s="7">
+        <v>0.56679270828502326</v>
+      </c>
+      <c r="BA40">
+        <v>1.0428456133894641</v>
       </c>
       <c r="BB40">
-        <v>0.52029982215911308</v>
-      </c>
-      <c r="BC40">
-        <v>0.55479255679945749</v>
-      </c>
-      <c r="BD40">
-        <v>0.63179483985813178</v>
-      </c>
-      <c r="BE40" s="8">
-        <v>0.82894186710250606</v>
-      </c>
-      <c r="BF40" s="7">
-        <v>0.56679270828502326</v>
-      </c>
-      <c r="BG40">
-        <v>1.0428456133894641</v>
-      </c>
-      <c r="BH40">
         <v>0.8600870802691738</v>
       </c>
-      <c r="BI40" s="8">
+      <c r="BC40" s="8">
         <v>0.65500670685818474</v>
       </c>
     </row>
-    <row r="41" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>10</v>
       </c>
@@ -1944,6 +1968,9 @@
       <c r="G41">
         <v>1.1260830705594937</v>
       </c>
+      <c r="H41" t="s">
+        <v>54</v>
+      </c>
       <c r="I41" s="8">
         <v>1.1697099568872797</v>
       </c>
@@ -1983,106 +2010,104 @@
       <c r="U41" s="8">
         <v>1.0431218737722279</v>
       </c>
-      <c r="Y41" s="8"/>
+      <c r="X41">
+        <v>1.0800759120388481</v>
+      </c>
+      <c r="Y41">
+        <v>1.4723814989819612</v>
+      </c>
       <c r="Z41">
-        <v>1.0800759120388481</v>
-      </c>
-      <c r="AA41">
-        <v>1.4723814989819612</v>
+        <v>1.7315642521946315</v>
+      </c>
+      <c r="AA41" s="8">
+        <v>1.3011960985415867</v>
       </c>
       <c r="AB41">
-        <v>1.7315642521946315</v>
-      </c>
-      <c r="AC41" s="8">
-        <v>1.3011960985415867</v>
+        <v>1.9528123111288151</v>
+      </c>
+      <c r="AC41">
+        <v>1.6122022361094075</v>
       </c>
       <c r="AD41">
-        <v>1.9528123111288151</v>
-      </c>
-      <c r="AE41">
-        <v>1.6122022361094075</v>
+        <v>1.6172334532586456</v>
+      </c>
+      <c r="AE41" s="8">
+        <v>1.5088150157554054</v>
       </c>
       <c r="AF41">
-        <v>1.6172334532586456</v>
-      </c>
-      <c r="AG41" s="8">
-        <v>1.5088150157554054</v>
-      </c>
-      <c r="AK41" s="8"/>
+        <v>1.0162573816414906</v>
+      </c>
+      <c r="AG41">
+        <v>1.1532723209655276</v>
+      </c>
+      <c r="AH41">
+        <v>0.85444430799626891</v>
+      </c>
+      <c r="AI41" s="8">
+        <v>0.95312555423810474</v>
+      </c>
+      <c r="AJ41">
+        <v>1.4825509893296152</v>
+      </c>
+      <c r="AK41">
+        <v>1.0441638464520333</v>
+      </c>
       <c r="AL41">
-        <v>1.0162573816414906</v>
-      </c>
-      <c r="AM41">
-        <v>1.1532723209655276</v>
+        <v>1.2768696078864437</v>
+      </c>
+      <c r="AM41" s="8">
+        <v>1.2130550401125961</v>
       </c>
       <c r="AN41">
-        <v>0.85444430799626891</v>
-      </c>
-      <c r="AO41" s="8">
-        <v>0.95312555423810474</v>
+        <v>1.3051880792741759</v>
+      </c>
+      <c r="AO41">
+        <v>1.0808326903721044</v>
       </c>
       <c r="AP41">
-        <v>1.4825509893296152</v>
-      </c>
-      <c r="AQ41">
-        <v>1.0441638464520333</v>
+        <v>1.7274438005408845</v>
+      </c>
+      <c r="AQ41" s="8">
+        <v>1.6552886689704063</v>
       </c>
       <c r="AR41">
-        <v>1.2768696078864437</v>
-      </c>
-      <c r="AS41" s="8">
-        <v>1.2130550401125961</v>
+        <v>0.63555578578271699</v>
+      </c>
+      <c r="AS41">
+        <v>1.0938295647379432</v>
       </c>
       <c r="AT41">
-        <v>1.3051880792741759</v>
-      </c>
-      <c r="AU41">
-        <v>1.0808326903721044</v>
+        <v>1.7859478751290603</v>
+      </c>
+      <c r="AU41" s="8">
+        <v>1.7299117398560966</v>
       </c>
       <c r="AV41">
-        <v>1.7274438005408845</v>
-      </c>
-      <c r="AW41" s="8">
-        <v>1.6552886689704063</v>
+        <v>0.41234052756436868</v>
+      </c>
+      <c r="AW41">
+        <v>0.33249610966354437</v>
       </c>
       <c r="AX41">
-        <v>0.63555578578271699</v>
-      </c>
-      <c r="AY41">
-        <v>1.0938295647379432</v>
-      </c>
-      <c r="AZ41">
-        <v>1.7859478751290603</v>
-      </c>
-      <c r="BA41" s="8">
-        <v>1.7299117398560966</v>
+        <v>0.51204795328437758</v>
+      </c>
+      <c r="AY41" s="8">
+        <v>0.81182605959273002</v>
+      </c>
+      <c r="AZ41" s="7">
+        <v>0.38393887080718364</v>
+      </c>
+      <c r="BA41">
+        <v>0.98098777147359373</v>
       </c>
       <c r="BB41">
-        <v>0.41234052756436868</v>
-      </c>
-      <c r="BC41">
-        <v>0.33249610966354437</v>
-      </c>
-      <c r="BD41">
-        <v>0.51204795328437758</v>
-      </c>
-      <c r="BE41" s="8">
-        <v>0.81182605959273002</v>
-      </c>
-      <c r="BF41" s="7">
-        <v>0.38393887080718364</v>
-      </c>
-      <c r="BG41">
-        <v>0.98098777147359373</v>
-      </c>
-      <c r="BH41">
         <v>0.68493099856018846</v>
       </c>
-      <c r="BI41" s="8">
+      <c r="BC41" s="8">
         <v>0.85353421041810662</v>
       </c>
     </row>
-    <row r="42" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>11</v>
       </c>
@@ -2104,6 +2129,9 @@
       <c r="G42">
         <v>0.96257748096001505</v>
       </c>
+      <c r="H42" t="s">
+        <v>54</v>
+      </c>
       <c r="I42" s="8">
         <v>1.246251625630211</v>
       </c>
@@ -2143,106 +2171,104 @@
       <c r="U42" s="8">
         <v>1.1979090553454119</v>
       </c>
-      <c r="Y42" s="8"/>
+      <c r="X42">
+        <v>1.0902129222502497</v>
+      </c>
+      <c r="Y42">
+        <v>1.4703380173109215</v>
+      </c>
       <c r="Z42">
-        <v>1.0902129222502497</v>
-      </c>
-      <c r="AA42">
-        <v>1.4703380173109215</v>
+        <v>1.8335510060074798</v>
+      </c>
+      <c r="AA42" s="8">
+        <v>1.474154371563573</v>
       </c>
       <c r="AB42">
-        <v>1.8335510060074798</v>
-      </c>
-      <c r="AC42" s="8">
-        <v>1.474154371563573</v>
+        <v>1.1371663966520169</v>
+      </c>
+      <c r="AC42">
+        <v>1.3409196660185581</v>
       </c>
       <c r="AD42">
-        <v>1.1371663966520169</v>
-      </c>
-      <c r="AE42">
-        <v>1.3409196660185581</v>
+        <v>1.3652537729570935</v>
+      </c>
+      <c r="AE42" s="8">
+        <v>1.5210641552235227</v>
       </c>
       <c r="AF42">
-        <v>1.3652537729570935</v>
-      </c>
-      <c r="AG42" s="8">
-        <v>1.5210641552235227</v>
-      </c>
-      <c r="AK42" s="8"/>
+        <v>1.0865306191669701</v>
+      </c>
+      <c r="AG42">
+        <v>0.89360676241694326</v>
+      </c>
+      <c r="AH42">
+        <v>1.1163489681243008</v>
+      </c>
+      <c r="AI42" s="8">
+        <v>1.1900156727057984</v>
+      </c>
+      <c r="AJ42">
+        <v>1.8716678697945015</v>
+      </c>
+      <c r="AK42">
+        <v>0.97175704633386617</v>
+      </c>
       <c r="AL42">
-        <v>1.0865306191669701</v>
-      </c>
-      <c r="AM42">
-        <v>0.89360676241694326</v>
+        <v>1.4081192087129848</v>
+      </c>
+      <c r="AM42" s="8">
+        <v>1.3791069532886235</v>
       </c>
       <c r="AN42">
-        <v>1.1163489681243008</v>
-      </c>
-      <c r="AO42" s="8">
-        <v>1.1900156727057984</v>
+        <v>1.3657168733331491</v>
+      </c>
+      <c r="AO42">
+        <v>1.0384003472032488</v>
       </c>
       <c r="AP42">
-        <v>1.8716678697945015</v>
-      </c>
-      <c r="AQ42">
-        <v>0.97175704633386617</v>
+        <v>1.472960973383596</v>
+      </c>
+      <c r="AQ42" s="8">
+        <v>1.5431565147574986</v>
       </c>
       <c r="AR42">
-        <v>1.4081192087129848</v>
-      </c>
-      <c r="AS42" s="8">
-        <v>1.3791069532886235</v>
+        <v>1.3045348979380307</v>
+      </c>
+      <c r="AS42">
+        <v>1.1055971178998225</v>
       </c>
       <c r="AT42">
-        <v>1.3657168733331491</v>
-      </c>
-      <c r="AU42">
-        <v>1.0384003472032488</v>
+        <v>1.9809858341758488</v>
+      </c>
+      <c r="AU42" s="8">
+        <v>1.8358010406614378</v>
       </c>
       <c r="AV42">
-        <v>1.472960973383596</v>
-      </c>
-      <c r="AW42" s="8">
-        <v>1.5431565147574986</v>
+        <v>0.6536096949668313</v>
+      </c>
+      <c r="AW42">
+        <v>0.35456001575424761</v>
       </c>
       <c r="AX42">
-        <v>1.3045348979380307</v>
-      </c>
-      <c r="AY42">
-        <v>1.1055971178998225</v>
-      </c>
-      <c r="AZ42">
-        <v>1.9809858341758488</v>
-      </c>
-      <c r="BA42" s="8">
-        <v>1.8358010406614378</v>
+        <v>0.53210224598083233</v>
+      </c>
+      <c r="AY42" s="8">
+        <v>0.83679966550776985</v>
+      </c>
+      <c r="AZ42" s="7">
+        <v>0.33043521023046235</v>
+      </c>
+      <c r="BA42">
+        <v>0.84548497007842138</v>
       </c>
       <c r="BB42">
-        <v>0.6536096949668313</v>
-      </c>
-      <c r="BC42">
-        <v>0.35456001575424761</v>
-      </c>
-      <c r="BD42">
-        <v>0.53210224598083233</v>
-      </c>
-      <c r="BE42" s="8">
-        <v>0.83679966550776985</v>
-      </c>
-      <c r="BF42" s="7">
-        <v>0.33043521023046235</v>
-      </c>
-      <c r="BG42">
-        <v>0.84548497007842138</v>
-      </c>
-      <c r="BH42">
         <v>0.6451939136198005</v>
       </c>
-      <c r="BI42" s="8">
+      <c r="BC42" s="8">
         <v>1.1041298708434732</v>
       </c>
     </row>
-    <row r="43" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>12</v>
       </c>
@@ -2264,6 +2290,9 @@
       <c r="G43">
         <v>0.65284869634487763</v>
       </c>
+      <c r="H43" t="s">
+        <v>54</v>
+      </c>
       <c r="I43" s="8">
         <v>0.61708498969851588</v>
       </c>
@@ -2303,106 +2332,104 @@
       <c r="U43" s="8">
         <v>0.455328434391501</v>
       </c>
-      <c r="Y43" s="8"/>
+      <c r="X43">
+        <v>0.71113137799383952</v>
+      </c>
+      <c r="Y43">
+        <v>0.4693869187298127</v>
+      </c>
       <c r="Z43">
-        <v>0.71113137799383952</v>
-      </c>
-      <c r="AA43">
-        <v>0.4693869187298127</v>
+        <v>0.42759771736493041</v>
+      </c>
+      <c r="AA43" s="8">
+        <v>0.62498649456897393</v>
       </c>
       <c r="AB43">
-        <v>0.42759771736493041</v>
-      </c>
-      <c r="AC43" s="8">
-        <v>0.62498649456897393</v>
+        <v>5.5750345377031142E-2</v>
+      </c>
+      <c r="AC43">
+        <v>0.25565242521759007</v>
       </c>
       <c r="AD43">
-        <v>5.5750345377031142E-2</v>
-      </c>
-      <c r="AE43">
-        <v>0.25565242521759007</v>
+        <v>0.21239916154344671</v>
+      </c>
+      <c r="AE43" s="8">
+        <v>0.51975788133359191</v>
       </c>
       <c r="AF43">
-        <v>0.21239916154344671</v>
-      </c>
-      <c r="AG43" s="8">
-        <v>0.51975788133359191</v>
-      </c>
-      <c r="AK43" s="8"/>
+        <v>1.1078823361026322</v>
+      </c>
+      <c r="AG43">
+        <v>0.8706439337004841</v>
+      </c>
+      <c r="AH43">
+        <v>0.95384936383226127</v>
+      </c>
+      <c r="AI43" s="8">
+        <v>0.9098372443765198</v>
+      </c>
+      <c r="AJ43">
+        <v>0.35828423397084846</v>
+      </c>
+      <c r="AK43">
+        <v>0.85267647542220071</v>
+      </c>
       <c r="AL43">
-        <v>1.1078823361026322</v>
-      </c>
-      <c r="AM43">
-        <v>0.8706439337004841</v>
+        <v>0.38648216630977172</v>
+      </c>
+      <c r="AM43" s="8">
+        <v>0.63600512017315791</v>
       </c>
       <c r="AN43">
-        <v>0.95384936383226127</v>
-      </c>
-      <c r="AO43" s="8">
-        <v>0.9098372443765198</v>
+        <v>0.96158124304578019</v>
+      </c>
+      <c r="AO43">
+        <v>0.47921601787313728</v>
       </c>
       <c r="AP43">
-        <v>0.35828423397084846</v>
-      </c>
-      <c r="AQ43">
-        <v>0.85267647542220071</v>
+        <v>0.38226420576283671</v>
+      </c>
+      <c r="AQ43" s="8">
+        <v>0.54038895994446046</v>
       </c>
       <c r="AR43">
-        <v>0.38648216630977172</v>
-      </c>
-      <c r="AS43" s="8">
-        <v>0.63600512017315791</v>
+        <v>0.36403078952476836</v>
+      </c>
+      <c r="AS43">
+        <v>0.34553948230818382</v>
       </c>
       <c r="AT43">
-        <v>0.96158124304578019</v>
-      </c>
-      <c r="AU43">
-        <v>0.47921601787313728</v>
+        <v>0.2721153521069743</v>
+      </c>
+      <c r="AU43" s="8">
+        <v>0.31050314412993102</v>
       </c>
       <c r="AV43">
-        <v>0.38226420576283671</v>
-      </c>
-      <c r="AW43" s="8">
-        <v>0.54038895994446046</v>
+        <v>1.5713004018827594</v>
+      </c>
+      <c r="AW43">
+        <v>2.3149161840678762</v>
       </c>
       <c r="AX43">
-        <v>0.36403078952476836</v>
-      </c>
-      <c r="AY43">
-        <v>0.34553948230818382</v>
-      </c>
-      <c r="AZ43">
-        <v>0.2721153521069743</v>
-      </c>
-      <c r="BA43" s="8">
-        <v>0.31050314412993102</v>
+        <v>1.170713784205959</v>
+      </c>
+      <c r="AY43" s="8">
+        <v>0.92864005815808037</v>
+      </c>
+      <c r="AZ43" s="7">
+        <v>0.36566721702461574</v>
+      </c>
+      <c r="BA43">
+        <v>0.61975320838636072</v>
       </c>
       <c r="BB43">
-        <v>1.5713004018827594</v>
-      </c>
-      <c r="BC43">
-        <v>2.3149161840678762</v>
-      </c>
-      <c r="BD43">
-        <v>1.170713784205959</v>
-      </c>
-      <c r="BE43" s="8">
-        <v>0.92864005815808037</v>
-      </c>
-      <c r="BF43" s="7">
-        <v>0.36566721702461574</v>
-      </c>
-      <c r="BG43">
-        <v>0.61975320838636072</v>
-      </c>
-      <c r="BH43">
         <v>0.65260664870532581</v>
       </c>
-      <c r="BI43" s="8">
+      <c r="BC43" s="8">
         <v>0.58691594418952941</v>
       </c>
     </row>
-    <row r="44" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>13</v>
       </c>
@@ -2424,6 +2451,9 @@
       <c r="G44">
         <v>0.96346288674595426</v>
       </c>
+      <c r="H44" t="s">
+        <v>54</v>
+      </c>
       <c r="I44" s="8">
         <v>1.2238073218036614</v>
       </c>
@@ -2463,106 +2493,104 @@
       <c r="U44" s="8">
         <v>1.5276013248755567</v>
       </c>
-      <c r="Y44" s="8"/>
+      <c r="X44">
+        <v>1.067938505450688</v>
+      </c>
+      <c r="Y44">
+        <v>0.52151955955235707</v>
+      </c>
       <c r="Z44">
-        <v>1.067938505450688</v>
-      </c>
-      <c r="AA44">
-        <v>0.52151955955235707</v>
+        <v>0.44285674856591567</v>
+      </c>
+      <c r="AA44" s="8">
+        <v>0.68854764956391046</v>
       </c>
       <c r="AB44">
-        <v>0.44285674856591567</v>
-      </c>
-      <c r="AC44" s="8">
-        <v>0.68854764956391046</v>
+        <v>0.25776806784719758</v>
+      </c>
+      <c r="AC44">
+        <v>0.41255800431333917</v>
       </c>
       <c r="AD44">
-        <v>0.25776806784719758</v>
-      </c>
-      <c r="AE44">
-        <v>0.41255800431333917</v>
+        <v>0.32087860844201971</v>
+      </c>
+      <c r="AE44" s="8">
+        <v>0.52711571680144131</v>
       </c>
       <c r="AF44">
-        <v>0.32087860844201971</v>
-      </c>
-      <c r="AG44" s="8">
-        <v>0.52711571680144131</v>
-      </c>
-      <c r="AK44" s="8"/>
+        <v>0.85051442469700811</v>
+      </c>
+      <c r="AG44">
+        <v>0.84474437424224158</v>
+      </c>
+      <c r="AH44">
+        <v>1.0186154380150769</v>
+      </c>
+      <c r="AI44" s="8">
+        <v>0.84852034115786179</v>
+      </c>
+      <c r="AJ44">
+        <v>0.62372989692883352</v>
+      </c>
+      <c r="AK44">
+        <v>0.91165537393239948</v>
+      </c>
       <c r="AL44">
-        <v>0.85051442469700811</v>
-      </c>
-      <c r="AM44">
-        <v>0.84474437424224158</v>
+        <v>0.7452554731301585</v>
+      </c>
+      <c r="AM44" s="8">
+        <v>0.85378262855327591</v>
       </c>
       <c r="AN44">
-        <v>1.0186154380150769</v>
-      </c>
-      <c r="AO44" s="8">
-        <v>0.84852034115786179</v>
+        <v>0.98444376605578876</v>
+      </c>
+      <c r="AO44">
+        <v>0.93162560163265151</v>
       </c>
       <c r="AP44">
-        <v>0.62372989692883352</v>
-      </c>
-      <c r="AQ44">
-        <v>0.91165537393239948</v>
+        <v>0.52207985849848104</v>
+      </c>
+      <c r="AQ44" s="8">
+        <v>0.44803832809368321</v>
       </c>
       <c r="AR44">
-        <v>0.7452554731301585</v>
-      </c>
-      <c r="AS44" s="8">
-        <v>0.85378262855327591</v>
+        <v>0.75027242001635197</v>
+      </c>
+      <c r="AS44">
+        <v>0.43879585658314019</v>
       </c>
       <c r="AT44">
-        <v>0.98444376605578876</v>
-      </c>
-      <c r="AU44">
-        <v>0.93162560163265151</v>
+        <v>0.30911157598096639</v>
+      </c>
+      <c r="AU44" s="8">
+        <v>0.5471442478749966</v>
       </c>
       <c r="AV44">
-        <v>0.52207985849848104</v>
-      </c>
-      <c r="AW44" s="8">
-        <v>0.44803832809368321</v>
+        <v>1.2884017764116205</v>
+      </c>
+      <c r="AW44">
+        <v>1.1170416001790628</v>
       </c>
       <c r="AX44">
-        <v>0.75027242001635197</v>
-      </c>
-      <c r="AY44">
-        <v>0.43879585658314019</v>
-      </c>
-      <c r="AZ44">
-        <v>0.30911157598096639</v>
-      </c>
-      <c r="BA44" s="8">
-        <v>0.5471442478749966</v>
+        <v>2.0686077771329061</v>
+      </c>
+      <c r="AY44" s="8">
+        <v>0.96064807700303056</v>
+      </c>
+      <c r="AZ44" s="7">
+        <v>1.488369466658344</v>
+      </c>
+      <c r="BA44">
+        <v>1.1214745149545886</v>
       </c>
       <c r="BB44">
-        <v>1.2884017764116205</v>
-      </c>
-      <c r="BC44">
-        <v>1.1170416001790628</v>
-      </c>
-      <c r="BD44">
-        <v>2.0686077771329061</v>
-      </c>
-      <c r="BE44" s="8">
-        <v>0.96064807700303056</v>
-      </c>
-      <c r="BF44" s="7">
-        <v>1.488369466658344</v>
-      </c>
-      <c r="BG44">
-        <v>1.1214745149545886</v>
-      </c>
-      <c r="BH44">
         <v>0.87231530142890046</v>
       </c>
-      <c r="BI44" s="8">
+      <c r="BC44" s="8">
         <v>1.0108234512797891</v>
       </c>
     </row>
-    <row r="45" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>17</v>
       </c>
@@ -2584,6 +2612,9 @@
       <c r="G45">
         <v>0.88889270363364703</v>
       </c>
+      <c r="H45" t="s">
+        <v>54</v>
+      </c>
       <c r="I45" s="8">
         <v>1.059640391875855</v>
       </c>
@@ -2623,106 +2654,104 @@
       <c r="U45" s="8">
         <v>1.4538927312634646</v>
       </c>
-      <c r="Y45" s="8"/>
+      <c r="X45">
+        <v>0.89356413540226165</v>
+      </c>
+      <c r="Y45">
+        <v>0.57160329692898715</v>
+      </c>
       <c r="Z45">
-        <v>0.89356413540226165</v>
-      </c>
-      <c r="AA45">
-        <v>0.57160329692898715</v>
+        <v>0.37692112562915564</v>
+      </c>
+      <c r="AA45" s="8">
+        <v>0.80336094536669156</v>
       </c>
       <c r="AB45">
-        <v>0.37692112562915564</v>
-      </c>
-      <c r="AC45" s="8">
-        <v>0.80336094536669156</v>
+        <v>0.43189946483643599</v>
+      </c>
+      <c r="AC45">
+        <v>0.60701437502078215</v>
       </c>
       <c r="AD45">
-        <v>0.43189946483643599</v>
-      </c>
-      <c r="AE45">
-        <v>0.60701437502078215</v>
+        <v>0.64777741102800623</v>
+      </c>
+      <c r="AE45" s="8">
+        <v>0.73749190542391541</v>
       </c>
       <c r="AF45">
-        <v>0.64777741102800623</v>
-      </c>
-      <c r="AG45" s="8">
-        <v>0.73749190542391541</v>
-      </c>
-      <c r="AK45" s="8"/>
+        <v>1.099946346629348</v>
+      </c>
+      <c r="AG45">
+        <v>0.86404040914902247</v>
+      </c>
+      <c r="AH45">
+        <v>0.92461384469423002</v>
+      </c>
+      <c r="AI45" s="8">
+        <v>0.98256150625164551</v>
+      </c>
+      <c r="AJ45">
+        <v>0.56040686920411242</v>
+      </c>
+      <c r="AK45">
+        <v>0.905737392413548</v>
+      </c>
       <c r="AL45">
-        <v>1.099946346629348</v>
-      </c>
-      <c r="AM45">
-        <v>0.86404040914902247</v>
+        <v>1.0115398407633198</v>
+      </c>
+      <c r="AM45" s="8">
+        <v>0.96255037222028283</v>
       </c>
       <c r="AN45">
-        <v>0.92461384469423002</v>
-      </c>
-      <c r="AO45" s="8">
-        <v>0.98256150625164551</v>
+        <v>0.97342641370210825</v>
+      </c>
+      <c r="AO45">
+        <v>0.88498244602861331</v>
       </c>
       <c r="AP45">
-        <v>0.56040686920411242</v>
-      </c>
-      <c r="AQ45">
-        <v>0.905737392413548</v>
+        <v>0.56541648425509772</v>
+      </c>
+      <c r="AQ45" s="8">
+        <v>0.56554108662574032</v>
       </c>
       <c r="AR45">
-        <v>1.0115398407633198</v>
-      </c>
-      <c r="AS45" s="8">
-        <v>0.96255037222028283</v>
+        <v>0.70490000370045391</v>
+      </c>
+      <c r="AS45">
+        <v>1.1123285463809067</v>
       </c>
       <c r="AT45">
-        <v>0.97342641370210825</v>
-      </c>
-      <c r="AU45">
-        <v>0.88498244602861331</v>
+        <v>0.55803641988182229</v>
+      </c>
+      <c r="AU45" s="8">
+        <v>0.59047908585441933</v>
       </c>
       <c r="AV45">
-        <v>0.56541648425509772</v>
-      </c>
-      <c r="AW45" s="8">
-        <v>0.56554108662574032</v>
+        <v>2.1598653478630307</v>
+      </c>
+      <c r="AW45">
+        <v>0.9466250818369939</v>
       </c>
       <c r="AX45">
-        <v>0.70490000370045391</v>
-      </c>
-      <c r="AY45">
-        <v>1.1123285463809067</v>
-      </c>
-      <c r="AZ45">
-        <v>0.55803641988182229</v>
-      </c>
-      <c r="BA45" s="8">
-        <v>0.59047908585441933</v>
+        <v>1.5465717561407353</v>
+      </c>
+      <c r="AY45" s="8">
+        <v>1.1491205125843178</v>
+      </c>
+      <c r="AZ45" s="7">
+        <v>2.0757522759961926</v>
+      </c>
+      <c r="BA45">
+        <v>1.2075483263334252</v>
       </c>
       <c r="BB45">
-        <v>2.1598653478630307</v>
-      </c>
-      <c r="BC45">
-        <v>0.9466250818369939</v>
-      </c>
-      <c r="BD45">
-        <v>1.5465717561407353</v>
-      </c>
-      <c r="BE45" s="8">
-        <v>1.1491205125843178</v>
-      </c>
-      <c r="BF45" s="7">
-        <v>2.0757522759961926</v>
-      </c>
-      <c r="BG45">
-        <v>1.2075483263334252</v>
-      </c>
-      <c r="BH45">
         <v>2.0179064555364632</v>
       </c>
-      <c r="BI45" s="8">
+      <c r="BC45" s="8">
         <v>1.7122345989405168</v>
       </c>
     </row>
-    <row r="46" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>14</v>
       </c>
@@ -2744,6 +2773,9 @@
       <c r="G46">
         <v>1.0974357278818863</v>
       </c>
+      <c r="H46" t="s">
+        <v>54</v>
+      </c>
       <c r="I46" s="8">
         <v>0.91159737057469248</v>
       </c>
@@ -2783,106 +2815,104 @@
       <c r="U46" s="8">
         <v>1.3232961931714382</v>
       </c>
-      <c r="Y46" s="8"/>
+      <c r="X46">
+        <v>0.88709786625942821</v>
+      </c>
+      <c r="Y46">
+        <v>0.57258500974978699</v>
+      </c>
       <c r="Z46">
-        <v>0.88709786625942821</v>
-      </c>
-      <c r="AA46">
-        <v>0.57258500974978699</v>
+        <v>0.38287049684324825</v>
+      </c>
+      <c r="AA46" s="8">
+        <v>0.74583890564636757</v>
       </c>
       <c r="AB46">
-        <v>0.38287049684324825</v>
-      </c>
-      <c r="AC46" s="8">
-        <v>0.74583890564636757</v>
+        <v>0.54683848776458799</v>
+      </c>
+      <c r="AC46">
+        <v>0.65266923073805538</v>
       </c>
       <c r="AD46">
-        <v>0.54683848776458799</v>
-      </c>
-      <c r="AE46">
-        <v>0.65266923073805538</v>
+        <v>1.0140809503110335</v>
+      </c>
+      <c r="AE46" s="8">
+        <v>0.74256563650523733</v>
       </c>
       <c r="AF46">
-        <v>1.0140809503110335</v>
-      </c>
-      <c r="AG46" s="8">
-        <v>0.74256563650523733</v>
-      </c>
-      <c r="AK46" s="8"/>
+        <v>0.49876197083319757</v>
+      </c>
+      <c r="AG46">
+        <v>0.91987422415194986</v>
+      </c>
+      <c r="AH46">
+        <v>0.92199462256137454</v>
+      </c>
+      <c r="AI46" s="8">
+        <v>1.0078427268955328</v>
+      </c>
+      <c r="AJ46">
+        <v>0.58631084998930427</v>
+      </c>
+      <c r="AK46">
+        <v>0.91915058788300952</v>
+      </c>
       <c r="AL46">
-        <v>0.49876197083319757</v>
-      </c>
-      <c r="AM46">
-        <v>0.91987422415194986</v>
+        <v>0.98954624661531865</v>
+      </c>
+      <c r="AM46" s="8">
+        <v>0.91228031595448134</v>
       </c>
       <c r="AN46">
-        <v>0.92199462256137454</v>
-      </c>
-      <c r="AO46" s="8">
-        <v>1.0078427268955328</v>
+        <v>0.96654096779240584</v>
+      </c>
+      <c r="AO46">
+        <v>1.0333280096201041</v>
       </c>
       <c r="AP46">
-        <v>0.58631084998930427</v>
-      </c>
-      <c r="AQ46">
-        <v>0.91915058788300952</v>
+        <v>0.54063342625781441</v>
+      </c>
+      <c r="AQ46" s="8">
+        <v>0.52026437118595814</v>
       </c>
       <c r="AR46">
-        <v>0.98954624661531865</v>
-      </c>
-      <c r="AS46" s="8">
-        <v>0.91228031595448134</v>
+        <v>0.61825694109407558</v>
+      </c>
+      <c r="AS46">
+        <v>1.2857271480408528</v>
       </c>
       <c r="AT46">
-        <v>0.96654096779240584</v>
-      </c>
-      <c r="AU46">
-        <v>1.0333280096201041</v>
+        <v>0.55141826768331248</v>
+      </c>
+      <c r="AU46" s="8">
+        <v>0.59640174325017892</v>
       </c>
       <c r="AV46">
-        <v>0.54063342625781441</v>
-      </c>
-      <c r="AW46" s="8">
-        <v>0.52026437118595814</v>
+        <v>1.4525119902402783</v>
+      </c>
+      <c r="AW46">
+        <v>1.3432593823248138</v>
       </c>
       <c r="AX46">
-        <v>0.61825694109407558</v>
-      </c>
-      <c r="AY46">
-        <v>1.2857271480408528</v>
-      </c>
-      <c r="AZ46">
-        <v>0.55141826768331248</v>
-      </c>
-      <c r="BA46" s="8">
-        <v>0.59640174325017892</v>
+        <v>1.5655962682690454</v>
+      </c>
+      <c r="AY46" s="8">
+        <v>1.0420439136012589</v>
+      </c>
+      <c r="AZ46" s="7">
+        <v>1.8717675702223664</v>
+      </c>
+      <c r="BA46">
+        <v>1.3409207942523125</v>
       </c>
       <c r="BB46">
-        <v>1.4525119902402783</v>
-      </c>
-      <c r="BC46">
-        <v>1.3432593823248138</v>
-      </c>
-      <c r="BD46">
-        <v>1.5655962682690454</v>
-      </c>
-      <c r="BE46" s="8">
-        <v>1.0420439136012589</v>
-      </c>
-      <c r="BF46" s="7">
-        <v>1.8717675702223664</v>
-      </c>
-      <c r="BG46">
-        <v>1.3409207942523125</v>
-      </c>
-      <c r="BH46">
         <v>2.0402082123803678</v>
       </c>
-      <c r="BI46" s="8">
+      <c r="BC46" s="8">
         <v>1.6513161423272955</v>
       </c>
     </row>
-    <row r="47" spans="1:61" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>15</v>
       </c>
@@ -2904,6 +2934,9 @@
       <c r="G47">
         <v>0.9997600789614467</v>
       </c>
+      <c r="H47" t="s">
+        <v>54</v>
+      </c>
       <c r="I47" s="8">
         <v>0.84817647053869782</v>
       </c>
@@ -2943,106 +2976,104 @@
       <c r="U47" s="8">
         <v>0.99559563514644167</v>
       </c>
-      <c r="Y47" s="8"/>
+      <c r="X47">
+        <v>0.85476399810858505</v>
+      </c>
+      <c r="Y47">
+        <v>0.68639509967095769</v>
+      </c>
       <c r="Z47">
-        <v>0.85476399810858505</v>
-      </c>
-      <c r="AA47">
-        <v>0.68639509967095769</v>
+        <v>0.37222072154716712</v>
+      </c>
+      <c r="AA47" s="8">
+        <v>0.62595600843548049</v>
       </c>
       <c r="AB47">
-        <v>0.37222072154716712</v>
-      </c>
-      <c r="AC47" s="8">
-        <v>0.62595600843548049</v>
+        <v>0.49293241449029407</v>
+      </c>
+      <c r="AC47">
+        <v>0.62292232108550916</v>
       </c>
       <c r="AD47">
-        <v>0.49293241449029407</v>
-      </c>
-      <c r="AE47">
-        <v>0.62292232108550916</v>
+        <v>1.2383521087937319</v>
+      </c>
+      <c r="AE47" s="8">
+        <v>0.59918678100281897</v>
       </c>
       <c r="AF47">
-        <v>1.2383521087937319</v>
-      </c>
-      <c r="AG47" s="8">
-        <v>0.59918678100281897</v>
-      </c>
-      <c r="AK47" s="8"/>
+        <v>0.60442124417466436</v>
+      </c>
+      <c r="AG47">
+        <v>0.92350982547297278</v>
+      </c>
+      <c r="AH47">
+        <v>0.8924382513585345</v>
+      </c>
+      <c r="AI47" s="8">
+        <v>0.83851666729333407</v>
+      </c>
+      <c r="AJ47">
+        <v>0.68349568485890444</v>
+      </c>
+      <c r="AK47">
+        <v>0.953945545936144</v>
+      </c>
       <c r="AL47">
-        <v>0.60442124417466436</v>
-      </c>
-      <c r="AM47">
-        <v>0.92350982547297278</v>
+        <v>1.0418540767068214</v>
+      </c>
+      <c r="AM47" s="8">
+        <v>0.81592127324360364</v>
       </c>
       <c r="AN47">
-        <v>0.8924382513585345</v>
-      </c>
-      <c r="AO47" s="8">
-        <v>0.83851666729333407</v>
+        <v>0.995942957737177</v>
+      </c>
+      <c r="AO47">
+        <v>1.075959456419991</v>
       </c>
       <c r="AP47">
-        <v>0.68349568485890444</v>
-      </c>
-      <c r="AQ47">
-        <v>0.953945545936144</v>
+        <v>0.45591640478031459</v>
+      </c>
+      <c r="AQ47" s="8">
+        <v>0.48804470743021428</v>
       </c>
       <c r="AR47">
-        <v>1.0418540767068214</v>
-      </c>
-      <c r="AS47" s="8">
-        <v>0.81592127324360364</v>
+        <v>0.75629844792055334</v>
+      </c>
+      <c r="AS47">
+        <v>1.4710560345990031</v>
       </c>
       <c r="AT47">
-        <v>0.995942957737177</v>
-      </c>
-      <c r="AU47">
-        <v>1.075959456419991</v>
+        <v>0.38040527575238769</v>
+      </c>
+      <c r="AU47" s="8">
+        <v>0.42140051981153603</v>
       </c>
       <c r="AV47">
-        <v>0.45591640478031459</v>
-      </c>
-      <c r="AW47" s="8">
-        <v>0.48804470743021428</v>
+        <v>1.0929266057755356</v>
+      </c>
+      <c r="AW47">
+        <v>1.1626678744083494</v>
       </c>
       <c r="AX47">
-        <v>0.75629844792055334</v>
-      </c>
-      <c r="AY47">
-        <v>1.4710560345990031</v>
-      </c>
-      <c r="AZ47">
-        <v>0.38040527575238769</v>
-      </c>
-      <c r="BA47" s="8">
-        <v>0.42140051981153603</v>
+        <v>1.2343733572225555</v>
+      </c>
+      <c r="AY47" s="8">
+        <v>1.0673808762819839</v>
+      </c>
+      <c r="AZ47" s="7">
+        <v>1.8416246770231579</v>
+      </c>
+      <c r="BA47">
+        <v>1.2647251013636578</v>
       </c>
       <c r="BB47">
-        <v>1.0929266057755356</v>
-      </c>
-      <c r="BC47">
-        <v>1.1626678744083494</v>
-      </c>
-      <c r="BD47">
-        <v>1.2343733572225555</v>
-      </c>
-      <c r="BE47" s="8">
-        <v>1.0673808762819839</v>
-      </c>
-      <c r="BF47" s="7">
-        <v>1.8416246770231579</v>
-      </c>
-      <c r="BG47">
-        <v>1.2647251013636578</v>
-      </c>
-      <c r="BH47">
         <v>1.3499936135616304</v>
       </c>
-      <c r="BI47" s="8">
+      <c r="BC47" s="8">
         <v>1.3920844681446234</v>
       </c>
     </row>
-    <row r="48" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>16</v>
       </c>
@@ -3064,7 +3095,9 @@
       <c r="G48" s="5">
         <v>1.1025471031845469</v>
       </c>
-      <c r="H48" s="5"/>
+      <c r="H48" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="I48" s="6">
         <v>0.84420256629774137</v>
       </c>
@@ -3106,1249 +3139,1243 @@
       </c>
       <c r="V48" s="5"/>
       <c r="W48" s="5"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="6"/>
+      <c r="X48" s="5">
+        <v>0.79284709951200383</v>
+      </c>
+      <c r="Y48" s="5">
+        <v>0.68929079865027754</v>
+      </c>
       <c r="Z48" s="5">
-        <v>0.79284709951200383</v>
-      </c>
-      <c r="AA48" s="5">
-        <v>0.68929079865027754</v>
+        <v>0.3240158691097636</v>
+      </c>
+      <c r="AA48" s="6">
+        <v>0.53433884242603724</v>
       </c>
       <c r="AB48" s="5">
-        <v>0.3240158691097636</v>
-      </c>
-      <c r="AC48" s="6">
-        <v>0.53433884242603724</v>
+        <v>0.35743569747637743</v>
+      </c>
+      <c r="AC48" s="5">
+        <v>0.75711714625626048</v>
       </c>
       <c r="AD48" s="5">
-        <v>0.35743569747637743</v>
-      </c>
-      <c r="AE48" s="5">
-        <v>0.75711714625626048</v>
+        <v>1.217991297418322</v>
+      </c>
+      <c r="AE48" s="6">
+        <v>0.45747636796132707</v>
       </c>
       <c r="AF48" s="5">
-        <v>1.217991297418322</v>
-      </c>
-      <c r="AG48" s="6">
-        <v>0.45747636796132707</v>
-      </c>
-      <c r="AH48" s="5"/>
-      <c r="AI48" s="5"/>
-      <c r="AJ48" s="5"/>
-      <c r="AK48" s="6"/>
+        <v>0.47193653118856482</v>
+      </c>
+      <c r="AG48" s="5">
+        <v>1.1650304383394665</v>
+      </c>
+      <c r="AH48" s="5">
+        <v>0.85786329677958506</v>
+      </c>
+      <c r="AI48" s="6">
+        <v>0.8195254743579492</v>
+      </c>
+      <c r="AJ48" s="5">
+        <v>0.78167933526351285</v>
+      </c>
+      <c r="AK48" s="5">
+        <v>1.2310232331251596</v>
+      </c>
       <c r="AL48" s="5">
-        <v>0.47193653118856482</v>
-      </c>
-      <c r="AM48" s="5">
-        <v>1.1650304383394665</v>
+        <v>0.79722022798504066</v>
+      </c>
+      <c r="AM48" s="6">
+        <v>0.7981371205598865</v>
       </c>
       <c r="AN48" s="5">
-        <v>0.85786329677958506</v>
-      </c>
-      <c r="AO48" s="6">
-        <v>0.8195254743579492</v>
+        <v>0.80345647429127232</v>
+      </c>
+      <c r="AO48" s="5">
+        <v>0.78847337844160181</v>
       </c>
       <c r="AP48" s="5">
-        <v>0.78167933526351285</v>
-      </c>
-      <c r="AQ48" s="5">
-        <v>1.2310232331251596</v>
+        <v>0.42782709633257937</v>
+      </c>
+      <c r="AQ48" s="6">
+        <v>0.40354708990926769</v>
       </c>
       <c r="AR48" s="5">
-        <v>0.79722022798504066</v>
-      </c>
-      <c r="AS48" s="6">
-        <v>0.7981371205598865</v>
+        <v>0.54352819243734218</v>
+      </c>
+      <c r="AS48" s="5">
+        <v>1.4866655607947086</v>
       </c>
       <c r="AT48" s="5">
-        <v>0.80345647429127232</v>
-      </c>
-      <c r="AU48" s="5">
-        <v>0.78847337844160181</v>
+        <v>0.49526318572368649</v>
+      </c>
+      <c r="AU48" s="6">
+        <v>0.45061314563640992</v>
       </c>
       <c r="AV48" s="5">
-        <v>0.42782709633257937</v>
-      </c>
-      <c r="AW48" s="6">
-        <v>0.40354708990926769</v>
+        <v>0.99308358777778605</v>
+      </c>
+      <c r="AW48" s="5">
+        <v>2.1402799483017043</v>
       </c>
       <c r="AX48" s="5">
-        <v>0.54352819243734218</v>
-      </c>
-      <c r="AY48" s="5">
-        <v>1.4866655607947086</v>
-      </c>
-      <c r="AZ48" s="5">
-        <v>0.49526318572368649</v>
-      </c>
-      <c r="BA48" s="6">
-        <v>0.45061314563640992</v>
+        <v>1.454288371245779</v>
+      </c>
+      <c r="AY48" s="6">
+        <v>0.99119434877542623</v>
+      </c>
+      <c r="AZ48" s="4">
+        <v>1.6305708795301002</v>
+      </c>
+      <c r="BA48" s="5">
+        <v>1.4292881083993512</v>
       </c>
       <c r="BB48" s="5">
-        <v>0.99308358777778605</v>
-      </c>
-      <c r="BC48" s="5">
-        <v>2.1402799483017043</v>
-      </c>
-      <c r="BD48" s="5">
-        <v>1.454288371245779</v>
-      </c>
-      <c r="BE48" s="6">
-        <v>0.99119434877542623</v>
-      </c>
-      <c r="BF48" s="4">
-        <v>1.6305708795301002</v>
-      </c>
-      <c r="BG48" s="5">
-        <v>1.4292881083993512</v>
-      </c>
-      <c r="BH48" s="5">
         <v>1.4642906525509585</v>
       </c>
-      <c r="BI48" s="6">
+      <c r="BC48" s="6">
         <v>1.3091506181111627</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="X49" s="2"/>
     </row>
-    <row r="50" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B50" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="X50" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y50" s="36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="52" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="37" t="s">
+    <row r="50" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="X50" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y50" s="35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E52" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="G52" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="I52" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="K52" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="L52" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="M52" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="U52" s="33"/>
+      <c r="X52" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y52" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="D52" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E52" s="33" t="s">
+      <c r="Z52" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA52" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB52" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F52" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="G52" s="33" t="s">
+      <c r="AC52" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD52" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H52" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="I52" s="33" t="s">
+      <c r="AE52" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF52" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J52" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="K52" s="31" t="s">
+      <c r="AG52" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH52" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="L52" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="M52" s="33" t="s">
+      <c r="AI52" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ52" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="U52" s="34"/>
-      <c r="X52" s="36" t="s">
+      <c r="AK52" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="Y52" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA52" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB52" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC52" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD52" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE52" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF52" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG52" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH52" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI52" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ52" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK52" s="33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="17">
+      <c r="B53" s="16">
         <v>1.1334481390802806</v>
       </c>
-      <c r="C53" s="18">
+      <c r="C53" s="17">
         <v>0.55356715600928674</v>
       </c>
-      <c r="D53" s="18">
+      <c r="D53" s="17">
         <v>0.46913355171619897</v>
       </c>
-      <c r="E53" s="18">
+      <c r="E53" s="17">
         <v>0.66864324696201172</v>
       </c>
-      <c r="F53" s="18">
+      <c r="F53" s="17">
         <v>0.28196733540133012</v>
       </c>
-      <c r="G53" s="18">
+      <c r="G53" s="17">
         <v>1.1415400985819404</v>
       </c>
-      <c r="H53" s="18">
+      <c r="H53" s="17">
         <v>0.49464747486677185</v>
       </c>
-      <c r="I53" s="18">
+      <c r="I53" s="17">
         <v>1.2728274318850612</v>
       </c>
-      <c r="J53" s="18">
+      <c r="J53" s="17">
         <v>0.56480323976800217</v>
       </c>
-      <c r="K53" s="18">
+      <c r="K53" s="17">
         <v>1.1900488867175423</v>
       </c>
-      <c r="L53" s="18">
+      <c r="L53" s="17">
         <v>0.63582148723294107</v>
       </c>
-      <c r="M53" s="18">
+      <c r="M53" s="17">
         <v>0.70032702916006673</v>
       </c>
-      <c r="N53" s="23">
+      <c r="N53" s="22">
         <v>0.24050006601864871</v>
       </c>
       <c r="X53" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="Y53" s="17">
+      <c r="Y53" s="16">
         <v>5.1552923261487686E-2</v>
       </c>
-      <c r="Z53" s="18">
+      <c r="Z53" s="17">
         <v>0.14726591142945225</v>
       </c>
-      <c r="AA53" s="18">
+      <c r="AA53" s="17">
         <v>0.15843182056718885</v>
       </c>
-      <c r="AB53" s="18">
+      <c r="AB53" s="17">
         <v>5.8678904682631886E-2</v>
       </c>
-      <c r="AC53" s="18">
+      <c r="AC53" s="17">
         <v>5.1588315924958682E-2</v>
       </c>
-      <c r="AD53" s="18">
+      <c r="AD53" s="17">
         <v>0.17603100904180624</v>
       </c>
-      <c r="AE53" s="18">
+      <c r="AE53" s="17">
         <v>0.13546217767564991</v>
       </c>
-      <c r="AF53" s="18">
+      <c r="AF53" s="17">
         <v>0.27677853597987706</v>
       </c>
-      <c r="AG53" s="26">
+      <c r="AG53" s="25">
         <v>9.0675774036627035E-2</v>
       </c>
-      <c r="AH53" s="18">
+      <c r="AH53" s="17">
         <v>0.22542954218449088</v>
       </c>
-      <c r="AI53" s="18">
+      <c r="AI53" s="17">
         <v>8.0684464342911211E-2</v>
       </c>
-      <c r="AJ53" s="18">
+      <c r="AJ53" s="17">
         <v>0.29117551808642622</v>
       </c>
-      <c r="AK53" s="23">
+      <c r="AK53" s="22">
         <v>0.11013887248952782</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="19">
+      <c r="B54" s="18">
         <v>1.2569835524345678</v>
       </c>
-      <c r="C54" s="20">
+      <c r="C54" s="19">
         <v>0.983758984695419</v>
       </c>
-      <c r="D54" s="20">
+      <c r="D54" s="19">
         <v>1.2165129541075239</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E54" s="19">
         <v>0.86945353254272462</v>
       </c>
-      <c r="F54" s="20">
+      <c r="F54" s="19">
         <v>0.97841875250111721</v>
       </c>
-      <c r="G54" s="20">
+      <c r="G54" s="19">
         <v>1.400423811393918</v>
       </c>
-      <c r="H54" s="20">
+      <c r="H54" s="19">
         <v>1.2072263726615882</v>
       </c>
-      <c r="I54" s="20">
+      <c r="I54" s="19">
         <v>1.2529880067804624</v>
       </c>
-      <c r="J54" s="20">
+      <c r="J54" s="19">
         <v>1.2686544132341728</v>
       </c>
-      <c r="K54" s="20">
+      <c r="K54" s="19">
         <v>1.2907059872468043</v>
       </c>
-      <c r="L54" s="20">
+      <c r="L54" s="19">
         <v>1.8367844154492288</v>
       </c>
-      <c r="M54" s="20">
+      <c r="M54" s="19">
         <v>0.62128889025522871</v>
       </c>
-      <c r="N54" s="24">
+      <c r="N54" s="23">
         <v>0.58545486630970012</v>
       </c>
       <c r="X54" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="Y54" s="19">
+      <c r="Y54" s="18">
         <v>5.5468723237179759E-2</v>
       </c>
-      <c r="Z54" s="20">
+      <c r="Z54" s="19">
         <v>0.12597179246787688</v>
       </c>
-      <c r="AA54" s="20">
+      <c r="AA54" s="19">
         <v>5.8939814089666386E-2</v>
       </c>
-      <c r="AB54" s="20">
+      <c r="AB54" s="19">
         <v>7.1688739120850345E-2</v>
       </c>
-      <c r="AC54" s="20">
+      <c r="AC54" s="19">
         <v>6.6856040391942734E-2</v>
       </c>
-      <c r="AD54" s="20">
+      <c r="AD54" s="19">
         <v>0.10008753639010831</v>
       </c>
-      <c r="AE54" s="20">
+      <c r="AE54" s="19">
         <v>0.17946785873446536</v>
       </c>
-      <c r="AF54" s="20">
+      <c r="AF54" s="19">
         <v>8.344658297757658E-2</v>
       </c>
-      <c r="AG54" s="20">
+      <c r="AG54" s="19">
         <v>5.8101393674235016E-2</v>
       </c>
-      <c r="AH54" s="20">
+      <c r="AH54" s="19">
         <v>0.17891420342844774</v>
       </c>
-      <c r="AI54" s="20">
+      <c r="AI54" s="19">
         <v>0.39729506396541509</v>
       </c>
-      <c r="AJ54" s="20">
+      <c r="AJ54" s="19">
         <v>7.906299445584386E-2</v>
       </c>
-      <c r="AK54" s="24">
+      <c r="AK54" s="23">
         <v>8.2606283883613768E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="19">
+      <c r="B55" s="18">
         <v>1.0255977770189946</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="19">
         <v>1.1870504990850124</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D55" s="19">
         <v>1.3436227182127523</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E55" s="19">
         <v>0.93175070907836632</v>
       </c>
-      <c r="F55" s="20">
+      <c r="F55" s="19">
         <v>0.99896553905766272</v>
       </c>
-      <c r="G55" s="20">
+      <c r="G55" s="19">
         <v>1.5309054151894728</v>
       </c>
-      <c r="H55" s="20">
+      <c r="H55" s="19">
         <v>1.9386571538187294</v>
       </c>
-      <c r="I55" s="20">
+      <c r="I55" s="19">
         <v>1.1813913872059389</v>
       </c>
-      <c r="J55" s="20">
+      <c r="J55" s="19">
         <v>1.2550178145253958</v>
       </c>
-      <c r="K55" s="20">
+      <c r="K55" s="19">
         <v>1.1994411553613249</v>
       </c>
-      <c r="L55" s="20">
+      <c r="L55" s="19">
         <v>1.5357022938906777</v>
       </c>
-      <c r="M55" s="20">
+      <c r="M55" s="19">
         <v>0.58788919075639878</v>
       </c>
-      <c r="N55" s="24">
+      <c r="N55" s="23">
         <v>0.76003463483635414</v>
       </c>
       <c r="X55" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Y55" s="19">
+      <c r="Y55" s="18">
         <v>1.3592250825395755E-2</v>
       </c>
-      <c r="Z55" s="20">
+      <c r="Z55" s="19">
         <v>8.7688529539887941E-2</v>
       </c>
-      <c r="AA55" s="20">
+      <c r="AA55" s="19">
         <v>0.18384809187462786</v>
       </c>
-      <c r="AB55" s="20">
+      <c r="AB55" s="19">
         <v>6.4212773869673376E-2</v>
       </c>
-      <c r="AC55" s="20">
+      <c r="AC55" s="19">
         <v>5.4680637140595408E-2</v>
       </c>
-      <c r="AD55" s="20">
+      <c r="AD55" s="19">
         <v>0.13609057500926611</v>
       </c>
-      <c r="AE55" s="20">
+      <c r="AE55" s="19">
         <v>0.20801485513412582</v>
       </c>
-      <c r="AF55" s="20">
+      <c r="AF55" s="19">
         <v>3.9024545587663155E-2</v>
       </c>
-      <c r="AG55" s="20">
+      <c r="AG55" s="19">
         <v>4.4586631662848292E-2</v>
       </c>
-      <c r="AH55" s="20">
+      <c r="AH55" s="19">
         <v>0.16866022659018062</v>
       </c>
-      <c r="AI55" s="20">
+      <c r="AI55" s="19">
         <v>9.8407450996822993E-2</v>
       </c>
-      <c r="AJ55" s="20">
+      <c r="AJ55" s="19">
         <v>0.13110638982182832</v>
       </c>
-      <c r="AK55" s="24">
+      <c r="AK55" s="23">
         <v>0.12277865077344761</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B56" s="19">
+      <c r="B56" s="18">
         <v>1.0067403544061182</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C56" s="19">
         <v>1.2187670185375825</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D56" s="19">
         <v>1.3445926057322521</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E56" s="19">
         <v>1.0386153743136295</v>
       </c>
-      <c r="F56" s="20">
+      <c r="F56" s="19">
         <v>1.0175895701989066</v>
       </c>
-      <c r="G56" s="20">
+      <c r="G56" s="19">
         <v>1.4419498556844537</v>
       </c>
-      <c r="H56" s="20">
+      <c r="H56" s="19">
         <v>2.1034620646702082</v>
       </c>
-      <c r="I56" s="20">
+      <c r="I56" s="19">
         <v>1.0402503862051029</v>
       </c>
-      <c r="J56" s="20">
+      <c r="J56" s="19">
         <v>1.4860762771106191</v>
       </c>
-      <c r="K56" s="20">
+      <c r="K56" s="19">
         <v>1.4195200609989334</v>
       </c>
-      <c r="L56" s="20">
+      <c r="L56" s="19">
         <v>1.4417901018773753</v>
       </c>
-      <c r="M56" s="20">
+      <c r="M56" s="19">
         <v>0.63395727147980208</v>
       </c>
-      <c r="N56" s="24">
+      <c r="N56" s="23">
         <v>0.7811830272004614</v>
       </c>
       <c r="X56" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="Y56" s="19">
+      <c r="Y56" s="18">
         <v>2.9365012949401085E-2</v>
       </c>
-      <c r="Z56" s="20">
+      <c r="Z56" s="19">
         <v>3.3351794630594664E-2</v>
       </c>
-      <c r="AA56" s="20">
+      <c r="AA56" s="19">
         <v>0.14358141227506827</v>
       </c>
-      <c r="AB56" s="20">
+      <c r="AB56" s="19">
         <v>6.2067042471399804E-2</v>
       </c>
-      <c r="AC56" s="20">
+      <c r="AC56" s="19">
         <v>4.6658868903758047E-2</v>
       </c>
-      <c r="AD56" s="20">
+      <c r="AD56" s="19">
         <v>5.3111673012260295E-2</v>
       </c>
-      <c r="AE56" s="20">
+      <c r="AE56" s="19">
         <v>0.21554761408047987</v>
       </c>
-      <c r="AF56" s="20">
+      <c r="AF56" s="19">
         <v>9.7435441399703851E-2</v>
       </c>
-      <c r="AG56" s="20">
+      <c r="AG56" s="19">
         <v>0.21641765933867774</v>
       </c>
-      <c r="AH56" s="20">
+      <c r="AH56" s="19">
         <v>9.0778550176244074E-2</v>
       </c>
-      <c r="AI56" s="20">
+      <c r="AI56" s="19">
         <v>0.12726344084816474</v>
       </c>
-      <c r="AJ56" s="20">
+      <c r="AJ56" s="19">
         <v>6.904632290304194E-2</v>
       </c>
-      <c r="AK56" s="24">
+      <c r="AK56" s="23">
         <v>0.10668365669178521</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="19">
+      <c r="B57" s="18">
         <v>0.99600464450533466</v>
       </c>
-      <c r="C57" s="20">
+      <c r="C57" s="19">
         <v>1.3320285294360776</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D57" s="19">
         <v>1.2516817448540047</v>
       </c>
-      <c r="E57" s="20">
+      <c r="E57" s="19">
         <v>0.9327985884946326</v>
       </c>
-      <c r="F57" s="20">
+      <c r="F57" s="19">
         <v>1.0670211019557554</v>
       </c>
-      <c r="G57" s="20">
+      <c r="G57" s="19">
         <v>1.3963044404392568</v>
       </c>
-      <c r="H57" s="20">
+      <c r="H57" s="19">
         <v>1.6727657540630683</v>
       </c>
-      <c r="I57" s="20">
+      <c r="I57" s="19">
         <v>0.99427489121034796</v>
       </c>
-      <c r="J57" s="20">
+      <c r="J57" s="19">
         <v>1.254159870945172</v>
       </c>
-      <c r="K57" s="20">
+      <c r="K57" s="19">
         <v>1.4421883097893926</v>
       </c>
-      <c r="L57" s="20">
+      <c r="L57" s="19">
         <v>1.3113112413764543</v>
       </c>
-      <c r="M57" s="20">
+      <c r="M57" s="19">
         <v>0.51717766252625519</v>
       </c>
-      <c r="N57" s="24">
+      <c r="N57" s="23">
         <v>0.72584796281476816</v>
       </c>
       <c r="X57" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Y57" s="19">
+      <c r="Y57" s="18">
         <v>5.8300778370029907E-2</v>
       </c>
-      <c r="Z57" s="20">
+      <c r="Z57" s="19">
         <v>0.15983555919594375</v>
       </c>
-      <c r="AA57" s="20">
+      <c r="AA57" s="19">
         <v>7.8775172720050843E-2</v>
       </c>
-      <c r="AB57" s="20">
+      <c r="AB57" s="19">
         <v>3.4128973607453823E-2</v>
       </c>
-      <c r="AC57" s="20">
+      <c r="AC57" s="19">
         <v>0.10490464872902761</v>
       </c>
-      <c r="AD57" s="20">
+      <c r="AD57" s="19">
         <v>0.13760842364222353</v>
       </c>
-      <c r="AE57" s="20">
+      <c r="AE57" s="19">
         <v>9.6634058374692883E-2</v>
       </c>
-      <c r="AF57" s="20">
+      <c r="AF57" s="19">
         <v>6.2589450981211464E-2</v>
       </c>
-      <c r="AG57" s="20">
+      <c r="AG57" s="19">
         <v>9.0584294320049261E-2</v>
       </c>
-      <c r="AH57" s="20">
+      <c r="AH57" s="19">
         <v>0.15169305766707186</v>
       </c>
-      <c r="AI57" s="20">
+      <c r="AI57" s="19">
         <v>0.27453749392775861</v>
       </c>
-      <c r="AJ57" s="20">
+      <c r="AJ57" s="19">
         <v>0.10485787708669782</v>
       </c>
-      <c r="AK57" s="24">
+      <c r="AK57" s="23">
         <v>0.12909173900458812</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="19">
+      <c r="B58" s="18">
         <v>1.0960442089199871</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="19">
         <v>1.1134436235140859</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D58" s="19">
         <v>1.3095857170401934</v>
       </c>
-      <c r="E58" s="20">
+      <c r="E58" s="19">
         <v>1.0090027624685296</v>
       </c>
-      <c r="F58" s="20">
+      <c r="F58" s="19">
         <v>1.0945795877352491</v>
       </c>
-      <c r="G58" s="20">
+      <c r="G58" s="19">
         <v>1.467064079283056</v>
       </c>
-      <c r="H58" s="20">
+      <c r="H58" s="19">
         <v>1.3411009977127977</v>
       </c>
-      <c r="I58" s="20">
+      <c r="I58" s="19">
         <v>1.0716255056035031</v>
       </c>
-      <c r="J58" s="20">
+      <c r="J58" s="19">
         <v>1.4076627695324939</v>
       </c>
-      <c r="K58" s="20">
+      <c r="K58" s="19">
         <v>1.3550586771693731</v>
       </c>
-      <c r="L58" s="20">
+      <c r="L58" s="19">
         <v>1.5567297226687848</v>
       </c>
-      <c r="M58" s="20">
+      <c r="M58" s="19">
         <v>0.59426790555242026</v>
       </c>
-      <c r="N58" s="24">
+      <c r="N58" s="23">
         <v>0.73131099119303933</v>
       </c>
       <c r="X58" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Y58" s="19">
+      <c r="Y58" s="18">
         <v>3.1247881306610159E-2</v>
       </c>
-      <c r="Z58" s="20">
+      <c r="Z58" s="19">
         <v>7.1348313602441316E-2</v>
       </c>
-      <c r="AA58" s="20">
+      <c r="AA58" s="19">
         <v>0.13305778397207235</v>
       </c>
-      <c r="AB58" s="20">
+      <c r="AB58" s="19">
         <v>1.7691564636079245E-2</v>
       </c>
-      <c r="AC58" s="20">
+      <c r="AC58" s="19">
         <v>8.8711832744177987E-2</v>
       </c>
-      <c r="AD58" s="20">
+      <c r="AD58" s="19">
         <v>0.15176474473443838</v>
       </c>
-      <c r="AE58" s="20">
+      <c r="AE58" s="19">
         <v>7.8824408764161941E-2</v>
       </c>
-      <c r="AF58" s="20">
+      <c r="AF58" s="19">
         <v>6.3198928724057329E-2</v>
       </c>
-      <c r="AG58" s="20">
+      <c r="AG58" s="19">
         <v>0.18396788115604923</v>
       </c>
-      <c r="AH58" s="20">
+      <c r="AH58" s="19">
         <v>0.111679542680652</v>
       </c>
-      <c r="AI58" s="20">
+      <c r="AI58" s="19">
         <v>0.20916439017031885</v>
       </c>
-      <c r="AJ58" s="20">
+      <c r="AJ58" s="19">
         <v>0.10151664240384721</v>
       </c>
-      <c r="AK58" s="24">
+      <c r="AK58" s="23">
         <v>0.16333685981493282</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="19">
+      <c r="B59" s="18">
         <v>0.88924086540626845</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="19">
         <v>0.47331336412122416</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D59" s="19">
         <v>0.48340624614648298</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E59" s="19">
         <v>1.027526007079778</v>
       </c>
-      <c r="F59" s="20">
+      <c r="F59" s="19">
         <v>0.38295452999250607</v>
       </c>
-      <c r="G59" s="20">
+      <c r="G59" s="19">
         <v>0.55827562716438917</v>
       </c>
-      <c r="H59" s="20">
+      <c r="H59" s="19">
         <v>0.26088995336791498</v>
       </c>
-      <c r="I59" s="20">
+      <c r="I59" s="19">
         <v>0.96055321950297434</v>
       </c>
-      <c r="J59" s="20">
+      <c r="J59" s="19">
         <v>0.55836199896899474</v>
       </c>
-      <c r="K59" s="20">
+      <c r="K59" s="19">
         <v>0.59086260665655366</v>
       </c>
-      <c r="L59" s="20">
+      <c r="L59" s="19">
         <v>0.3230471920174644</v>
       </c>
-      <c r="M59" s="20">
+      <c r="M59" s="19">
         <v>1.4963926070786688</v>
       </c>
-      <c r="N59" s="24">
+      <c r="N59" s="23">
         <v>0.55623575457645791</v>
       </c>
       <c r="X59" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Y59" s="19">
+      <c r="Y59" s="18">
         <v>1.8405976654058877E-2</v>
       </c>
-      <c r="Z59" s="20">
+      <c r="Z59" s="19">
         <v>0.14028123751962374</v>
       </c>
-      <c r="AA59" s="20">
+      <c r="AA59" s="19">
         <v>0.15814559762083244</v>
       </c>
-      <c r="AB59" s="20">
+      <c r="AB59" s="19">
         <v>4.1472073596785335E-2</v>
       </c>
-      <c r="AC59" s="20">
+      <c r="AC59" s="19">
         <v>9.6052312918872618E-2</v>
       </c>
-      <c r="AD59" s="20">
+      <c r="AD59" s="19">
         <v>6.6328185931918415E-2</v>
       </c>
-      <c r="AE59" s="20">
+      <c r="AE59" s="19">
         <v>9.6381901607090176E-2</v>
       </c>
-      <c r="AF59" s="20">
+      <c r="AF59" s="19">
         <v>5.1966816403539645E-2</v>
       </c>
-      <c r="AG59" s="20">
+      <c r="AG59" s="19">
         <v>0.11626953392938069</v>
       </c>
-      <c r="AH59" s="20">
+      <c r="AH59" s="19">
         <v>0.12778828520287436</v>
       </c>
-      <c r="AI59" s="20">
+      <c r="AI59" s="19">
         <v>2.0283334376681221E-2</v>
       </c>
-      <c r="AJ59" s="20">
+      <c r="AJ59" s="19">
         <v>0.30331524803455956</v>
       </c>
-      <c r="AK59" s="24">
+      <c r="AK59" s="23">
         <v>6.4922683319617772E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B60" s="19">
+      <c r="B60" s="18">
         <v>0.92379015601791026</v>
       </c>
-      <c r="C60" s="20">
+      <c r="C60" s="19">
         <v>1.1668166603734702</v>
       </c>
-      <c r="D60" s="20">
+      <c r="D60" s="19">
         <v>0.97141931121213854</v>
       </c>
-      <c r="E60" s="20">
+      <c r="E60" s="19">
         <v>1.10863220559273</v>
       </c>
-      <c r="F60" s="20">
+      <c r="F60" s="19">
         <v>1.0375077262571641</v>
       </c>
-      <c r="G60" s="20">
+      <c r="G60" s="19">
         <v>0.68021561578321788</v>
       </c>
-      <c r="H60" s="20">
+      <c r="H60" s="19">
         <v>0.37958009935099946</v>
       </c>
-      <c r="I60" s="20">
+      <c r="I60" s="19">
         <v>0.89059864452804716</v>
       </c>
-      <c r="J60" s="20">
+      <c r="J60" s="19">
         <v>0.78360584313616688</v>
       </c>
-      <c r="K60" s="20">
+      <c r="K60" s="19">
         <v>0.72154688857015115</v>
       </c>
-      <c r="L60" s="20">
+      <c r="L60" s="19">
         <v>0.51133102511386386</v>
       </c>
-      <c r="M60" s="20">
+      <c r="M60" s="19">
         <v>1.3586748076816551</v>
       </c>
-      <c r="N60" s="24">
+      <c r="N60" s="23">
         <v>1.1232456835804057</v>
       </c>
       <c r="X60" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Y60" s="19">
+      <c r="Y60" s="18">
         <v>4.3153409764079463E-2</v>
       </c>
-      <c r="Z60" s="20">
+      <c r="Z60" s="19">
         <v>9.0845234706399908E-2</v>
       </c>
-      <c r="AA60" s="20">
+      <c r="AA60" s="19">
         <v>0.12107079512837866</v>
       </c>
-      <c r="AB60" s="20">
+      <c r="AB60" s="19">
         <v>7.7617979991854297E-2</v>
       </c>
-      <c r="AC60" s="20">
+      <c r="AC60" s="19">
         <v>0.1716075525552016</v>
       </c>
-      <c r="AD60" s="20">
+      <c r="AD60" s="19">
         <v>0.13902102121289805</v>
       </c>
-      <c r="AE60" s="20">
+      <c r="AE60" s="19">
         <v>5.8550787559610989E-2</v>
       </c>
-      <c r="AF60" s="20">
+      <c r="AF60" s="19">
         <v>4.2689032365976778E-2</v>
       </c>
-      <c r="AG60" s="20">
+      <c r="AG60" s="19">
         <v>6.3477379569353828E-2</v>
       </c>
-      <c r="AH60" s="20">
+      <c r="AH60" s="19">
         <v>0.13779267718001109</v>
       </c>
-      <c r="AI60" s="20">
+      <c r="AI60" s="19">
         <v>9.3331681564496144E-2</v>
       </c>
-      <c r="AJ60" s="20">
+      <c r="AJ60" s="19">
         <v>0.245925972150912</v>
       </c>
-      <c r="AK60" s="24">
+      <c r="AK60" s="23">
         <v>0.13194801028233291</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="19">
+      <c r="B61" s="18">
         <v>0.91881019068818526</v>
       </c>
-      <c r="C61" s="20">
+      <c r="C61" s="19">
         <v>1.1223004306497917</v>
       </c>
-      <c r="D61" s="20">
+      <c r="D61" s="19">
         <v>1.096069591582026</v>
       </c>
-      <c r="E61" s="20">
+      <c r="E61" s="19">
         <v>1.1485102960204421</v>
       </c>
-      <c r="F61" s="20">
+      <c r="F61" s="19">
         <v>1.3113108865703402</v>
       </c>
-      <c r="G61" s="20">
+      <c r="G61" s="19">
         <v>0.66136237583177393</v>
       </c>
-      <c r="H61" s="20">
+      <c r="H61" s="19">
         <v>0.6060457890772849</v>
       </c>
-      <c r="I61" s="20">
+      <c r="I61" s="19">
         <v>0.96779052668106147</v>
       </c>
-      <c r="J61" s="20">
+      <c r="J61" s="19">
         <v>0.86005861865031574</v>
       </c>
-      <c r="K61" s="20">
+      <c r="K61" s="19">
         <v>0.74734160765288993</v>
       </c>
-      <c r="L61" s="20">
+      <c r="L61" s="19">
         <v>0.74143601395440051</v>
       </c>
-      <c r="M61" s="20">
+      <c r="M61" s="19">
         <v>1.4505456746062695</v>
       </c>
-      <c r="N61" s="24">
+      <c r="N61" s="23">
         <v>1.7533604142016497</v>
       </c>
       <c r="X61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="Y61" s="19">
+      <c r="Y61" s="18">
         <v>4.6238993169821364E-2</v>
       </c>
-      <c r="Z61" s="20">
+      <c r="Z61" s="19">
         <v>0.13512104269409936</v>
       </c>
-      <c r="AA61" s="20">
+      <c r="AA61" s="19">
         <v>0.15191693382953525</v>
       </c>
-      <c r="AB61" s="20">
+      <c r="AB61" s="19">
         <v>5.6747597584314378E-2</v>
       </c>
-      <c r="AC61" s="20">
+      <c r="AC61" s="19">
         <v>7.0113256753880235E-2</v>
       </c>
-      <c r="AD61" s="20">
+      <c r="AD61" s="19">
         <v>0.11656356204517022</v>
       </c>
-      <c r="AE61" s="20">
+      <c r="AE61" s="19">
         <v>6.4127145954072554E-2</v>
       </c>
-      <c r="AF61" s="20">
+      <c r="AF61" s="19">
         <v>5.0259041756170943E-2</v>
       </c>
-      <c r="AG61" s="20">
+      <c r="AG61" s="19">
         <v>0.10219623342756609</v>
       </c>
-      <c r="AH61" s="20">
+      <c r="AH61" s="19">
         <v>0.10653931976979583</v>
       </c>
-      <c r="AI61" s="20">
+      <c r="AI61" s="19">
         <v>0.12757989519721652</v>
       </c>
-      <c r="AJ61" s="20">
+      <c r="AJ61" s="19">
         <v>0.26726212154001538</v>
       </c>
-      <c r="AK61" s="24">
+      <c r="AK61" s="23">
         <v>0.19864610250418371</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B62" s="19">
+      <c r="B62" s="18">
         <v>0.93998659881904112</v>
       </c>
-      <c r="C62" s="20">
+      <c r="C62" s="19">
         <v>0.99288525857891263</v>
       </c>
-      <c r="D62" s="20">
+      <c r="D62" s="19">
         <v>0.89144907911746007</v>
       </c>
-      <c r="E62" s="20">
+      <c r="E62" s="19">
         <v>1.1416139743923421</v>
       </c>
-      <c r="F62" s="20">
+      <c r="F62" s="19">
         <v>1.2036154273819191</v>
       </c>
-      <c r="G62" s="20">
+      <c r="G62" s="19">
         <v>0.64709806962470784</v>
       </c>
-      <c r="H62" s="20">
+      <c r="H62" s="19">
         <v>0.73903857632972858</v>
       </c>
-      <c r="I62" s="20">
+      <c r="I62" s="19">
         <v>0.8371183861105137</v>
       </c>
-      <c r="J62" s="20">
+      <c r="J62" s="19">
         <v>0.85182200011052844</v>
       </c>
-      <c r="K62" s="20">
+      <c r="K62" s="19">
         <v>0.76519169371407059</v>
       </c>
-      <c r="L62" s="20">
+      <c r="L62" s="19">
         <v>0.76295102501710488</v>
       </c>
-      <c r="M62" s="20">
+      <c r="M62" s="19">
         <v>1.3508528886088491</v>
       </c>
-      <c r="N62" s="24">
+      <c r="N62" s="23">
         <v>1.7260531797955856</v>
       </c>
       <c r="X62" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Y62" s="19">
+      <c r="Y62" s="18">
         <v>3.8894283379523026E-2</v>
       </c>
-      <c r="Z62" s="20">
+      <c r="Z62" s="19">
         <v>4.7539022203264503E-2</v>
       </c>
-      <c r="AA62" s="20">
+      <c r="AA62" s="19">
         <v>7.8015168193330264E-2</v>
       </c>
-      <c r="AB62" s="20">
+      <c r="AB62" s="19">
         <v>6.2454984152899004E-2</v>
       </c>
-      <c r="AC62" s="20">
+      <c r="AC62" s="19">
         <v>0.118112990435043</v>
       </c>
-      <c r="AD62" s="20">
+      <c r="AD62" s="19">
         <v>0.10905581957300133</v>
       </c>
-      <c r="AE62" s="20">
+      <c r="AE62" s="19">
         <v>0.10002553238262693</v>
       </c>
-      <c r="AF62" s="20">
+      <c r="AF62" s="19">
         <v>0.11463142695170084</v>
       </c>
-      <c r="AG62" s="20">
+      <c r="AG62" s="19">
         <v>9.0209240842301044E-2</v>
       </c>
-      <c r="AH62" s="20">
+      <c r="AH62" s="19">
         <v>0.13627619713999889</v>
       </c>
-      <c r="AI62" s="20">
+      <c r="AI62" s="19">
         <v>0.17481323925082204</v>
       </c>
-      <c r="AJ62" s="20">
+      <c r="AJ62" s="19">
         <v>0.11249812459004092</v>
       </c>
-      <c r="AK62" s="24">
+      <c r="AK62" s="23">
         <v>0.15106252768296047</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="19">
+      <c r="B63" s="18">
         <v>0.86520497447862899</v>
       </c>
-      <c r="C63" s="20">
+      <c r="C63" s="19">
         <v>0.96776238188883645</v>
       </c>
-      <c r="D63" s="20">
+      <c r="D63" s="19">
         <v>0.8228282767277606</v>
       </c>
-      <c r="E63" s="20">
+      <c r="E63" s="19">
         <v>1.0347900113198332</v>
       </c>
-      <c r="F63" s="20">
+      <c r="F63" s="19">
         <v>1.3308673611949355</v>
       </c>
-      <c r="G63" s="20">
+      <c r="G63" s="19">
         <v>0.63483395694054756</v>
       </c>
-      <c r="H63" s="20">
+      <c r="H63" s="19">
         <v>0.73834840634308851</v>
       </c>
-      <c r="I63" s="20">
+      <c r="I63" s="19">
         <v>0.81472149707487651</v>
       </c>
-      <c r="J63" s="20">
+      <c r="J63" s="19">
         <v>0.8738041451863684</v>
       </c>
-      <c r="K63" s="20">
+      <c r="K63" s="19">
         <v>0.75396588159192413</v>
       </c>
-      <c r="L63" s="20">
+      <c r="L63" s="19">
         <v>0.75729006952086997</v>
       </c>
-      <c r="M63" s="20">
+      <c r="M63" s="19">
         <v>1.139337178422106</v>
       </c>
-      <c r="N63" s="24">
+      <c r="N63" s="23">
         <v>1.4621069650232672</v>
       </c>
       <c r="X63" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Y63" s="19">
+      <c r="Y63" s="18">
         <v>3.2817987478543614E-2</v>
       </c>
-      <c r="Z63" s="20">
+      <c r="Z63" s="19">
         <v>5.3614757870058399E-2</v>
       </c>
-      <c r="AA63" s="20">
+      <c r="AA63" s="19">
         <v>9.9442916482832308E-2</v>
       </c>
-      <c r="AB63" s="20">
+      <c r="AB63" s="19">
         <v>5.6925477187482164E-2</v>
       </c>
-      <c r="AC63" s="20">
+      <c r="AC63" s="19">
         <v>0.11453687612190055</v>
       </c>
-      <c r="AD63" s="20">
+      <c r="AD63" s="19">
         <v>0.10003012205550806</v>
       </c>
-      <c r="AE63" s="20">
+      <c r="AE63" s="19">
         <v>0.16904680087840518</v>
       </c>
-      <c r="AF63" s="20">
+      <c r="AF63" s="19">
         <v>7.2265252592824375E-2</v>
       </c>
-      <c r="AG63" s="20">
+      <c r="AG63" s="19">
         <v>7.865068368780867E-2</v>
       </c>
-      <c r="AH63" s="20">
+      <c r="AH63" s="19">
         <v>0.16375294631079162</v>
       </c>
-      <c r="AI63" s="20">
+      <c r="AI63" s="19">
         <v>0.25237650009380308</v>
       </c>
-      <c r="AJ63" s="20">
+      <c r="AJ63" s="19">
         <v>3.7536479287106662E-2</v>
       </c>
-      <c r="AK63" s="24">
+      <c r="AK63" s="23">
         <v>0.12924970904817476</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B64" s="21">
+      <c r="B64" s="20">
         <v>1.0096824667428681</v>
       </c>
-      <c r="C64" s="22">
+      <c r="C64" s="21">
         <v>0.92282249874416278</v>
       </c>
-      <c r="D64" s="22">
+      <c r="D64" s="21">
         <v>0.88825672071082551</v>
       </c>
-      <c r="E64" s="22">
+      <c r="E64" s="21">
         <v>1.0890592596845816</v>
       </c>
-      <c r="F64" s="22">
+      <c r="F64" s="21">
         <v>1.3027545448690452</v>
       </c>
-      <c r="G64" s="22">
+      <c r="G64" s="21">
         <v>0.58512315242452051</v>
       </c>
-      <c r="H64" s="22">
+      <c r="H64" s="21">
         <v>0.69750512727807168</v>
       </c>
-      <c r="I64" s="22">
+      <c r="I64" s="21">
         <v>0.82858893516639132</v>
       </c>
-      <c r="J64" s="22">
+      <c r="J64" s="21">
         <v>0.90201497923339991</v>
       </c>
-      <c r="K64" s="22">
+      <c r="K64" s="21">
         <v>0.60582600974368028</v>
       </c>
-      <c r="L64" s="22">
+      <c r="L64" s="21">
         <v>0.74401752114803676</v>
       </c>
-      <c r="M64" s="22">
+      <c r="M64" s="21">
         <v>1.3947115640251739</v>
       </c>
-      <c r="N64" s="25">
+      <c r="N64" s="24">
         <v>1.4583250646478931</v>
       </c>
       <c r="X64" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Y64" s="21">
+      <c r="Y64" s="20">
         <v>0.1179505072904207</v>
       </c>
-      <c r="Z64" s="22">
+      <c r="Z64" s="21">
         <v>7.802578253223344E-2</v>
       </c>
-      <c r="AA64" s="22">
+      <c r="AA64" s="21">
         <v>0.18466896903406774</v>
       </c>
-      <c r="AB64" s="22">
+      <c r="AB64" s="21">
         <v>8.4587406691308861E-2</v>
       </c>
-      <c r="AC64" s="22">
+      <c r="AC64" s="21">
         <v>0.1966532175009969</v>
       </c>
-      <c r="AD64" s="22">
+      <c r="AD64" s="21">
         <v>0.1019624915740478</v>
       </c>
-      <c r="AE64" s="22">
+      <c r="AE64" s="21">
         <v>0.19315806750316938</v>
       </c>
-      <c r="AF64" s="22">
+      <c r="AF64" s="21">
         <v>0.14181353863736243</v>
       </c>
-      <c r="AG64" s="22">
+      <c r="AG64" s="21">
         <v>0.10973439439177377</v>
       </c>
-      <c r="AH64" s="22">
+      <c r="AH64" s="21">
         <v>0.10993112858910088</v>
       </c>
-      <c r="AI64" s="22">
+      <c r="AI64" s="21">
         <v>0.24827520494397745</v>
       </c>
-      <c r="AJ64" s="22">
+      <c r="AJ64" s="21">
         <v>0.27134737666854275</v>
       </c>
-      <c r="AK64" s="25">
+      <c r="AK64" s="24">
         <v>6.6332727789018484E-2</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B68" s="29"/>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4361,121 +4388,123 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="158" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="8" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="8" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="8" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="8" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="16"/>
+    </row>
+    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="37" t="s">
+        <v>53</v>
+      </c>
       <c r="B16" s="6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
